--- a/data/costs.xlsx
+++ b/data/costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\test-mvp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655FABF5-F36A-44C4-BD0A-A1EFDFFE9E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A34F416-24A5-41A0-8B24-A5B2E61725B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,14 @@
     <sheet name="Urun_Maliyet_Hesaplama" sheetId="1" r:id="rId1"/>
     <sheet name="Urun_Icerik" sheetId="2" r:id="rId2"/>
     <sheet name="Urun_Maliyet" sheetId="3" r:id="rId3"/>
-    <sheet name="Costs" sheetId="5" r:id="rId4"/>
+    <sheet name="Costs" sheetId="6" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Urun_Maliyet!$A$1:$E$883</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -434,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -542,7 +545,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2677,10 +2689,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F8DBF5-6D5F-4C07-B9FB-79409D750831}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E883"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,10 +2723,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="37">
         <v>100</v>
       </c>
       <c r="C2" s="26" t="s">
@@ -2728,9 +2741,9 @@
         <v>124.74444444444444</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="26" t="s">
         <v>19</v>
       </c>
@@ -2740,9 +2753,9 @@
       </c>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="26" t="s">
         <v>15</v>
       </c>
@@ -2752,9 +2765,9 @@
       </c>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="26" t="s">
         <v>12</v>
       </c>
@@ -2764,9 +2777,9 @@
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="26" t="s">
         <v>23</v>
       </c>
@@ -2776,9 +2789,9 @@
       </c>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="26" t="s">
         <v>22</v>
       </c>
@@ -2788,9 +2801,9 @@
       </c>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="26" t="s">
         <v>16</v>
       </c>
@@ -2800,9 +2813,9 @@
       </c>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="26" t="s">
         <v>18</v>
       </c>
@@ -2831,7 +2844,7 @@
         <v>131.74444444444444</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="26" t="s">
@@ -2843,7 +2856,7 @@
       </c>
       <c r="E11" s="31"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="26" t="s">
@@ -2855,7 +2868,7 @@
       </c>
       <c r="E12" s="31"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="26" t="s">
@@ -2867,7 +2880,7 @@
       </c>
       <c r="E13" s="31"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="26" t="s">
@@ -2879,7 +2892,7 @@
       </c>
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="26" t="s">
@@ -2891,7 +2904,7 @@
       </c>
       <c r="E15" s="31"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="26" t="s">
@@ -2903,7 +2916,7 @@
       </c>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="26" t="s">
@@ -2915,7 +2928,7 @@
       </c>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="26" t="s">
@@ -2946,7 +2959,7 @@
         <v>147.97777777777776</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="26" t="s">
@@ -2958,7 +2971,7 @@
       </c>
       <c r="E20" s="31"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="26" t="s">
@@ -2970,7 +2983,7 @@
       </c>
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="26" t="s">
@@ -2982,7 +2995,7 @@
       </c>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="26" t="s">
@@ -2994,7 +3007,7 @@
       </c>
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="26" t="s">
@@ -3006,7 +3019,7 @@
       </c>
       <c r="E24" s="31"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="26" t="s">
@@ -3018,7 +3031,7 @@
       </c>
       <c r="E25" s="31"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="26" t="s">
@@ -3049,7 +3062,7 @@
         <v>126.24444444444444</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="26" t="s">
@@ -3061,7 +3074,7 @@
       </c>
       <c r="E28" s="31"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="26" t="s">
@@ -3073,7 +3086,7 @@
       </c>
       <c r="E29" s="31"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="26" t="s">
@@ -3085,7 +3098,7 @@
       </c>
       <c r="E30" s="31"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="26" t="s">
@@ -3097,7 +3110,7 @@
       </c>
       <c r="E31" s="31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="26" t="s">
@@ -3109,7 +3122,7 @@
       </c>
       <c r="E32" s="31"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="26" t="s">
@@ -3121,7 +3134,7 @@
       </c>
       <c r="E33" s="31"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="26" t="s">
@@ -3152,7 +3165,7 @@
         <v>123.24444444444444</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="26" t="s">
@@ -3164,7 +3177,7 @@
       </c>
       <c r="E36" s="31"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="26" t="s">
@@ -3176,7 +3189,7 @@
       </c>
       <c r="E37" s="31"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="26" t="s">
@@ -3188,7 +3201,7 @@
       </c>
       <c r="E38" s="31"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="26" t="s">
@@ -3200,7 +3213,7 @@
       </c>
       <c r="E39" s="31"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="26" t="s">
@@ -3212,7 +3225,7 @@
       </c>
       <c r="E40" s="31"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="26" t="s">
@@ -3224,7 +3237,7 @@
       </c>
       <c r="E41" s="31"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="26" t="s">
@@ -3255,7 +3268,7 @@
         <v>163.57222222222222</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="26" t="s">
@@ -3267,7 +3280,7 @@
       </c>
       <c r="E44" s="29"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="26" t="s">
@@ -3279,7 +3292,7 @@
       </c>
       <c r="E45" s="29"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="26" t="s">
@@ -3291,7 +3304,7 @@
       </c>
       <c r="E46" s="29"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="26" t="s">
@@ -3303,7 +3316,7 @@
       </c>
       <c r="E47" s="29"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="26" t="s">
@@ -3315,7 +3328,7 @@
       </c>
       <c r="E48" s="29"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="26" t="s">
@@ -3327,7 +3340,7 @@
       </c>
       <c r="E49" s="30"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="26" t="s">
@@ -3358,7 +3371,7 @@
         <v>124.74444444444444</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="26" t="s">
@@ -3370,7 +3383,7 @@
       </c>
       <c r="E52" s="31"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="26" t="s">
@@ -3382,7 +3395,7 @@
       </c>
       <c r="E53" s="31"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
       <c r="C54" s="26" t="s">
@@ -3394,7 +3407,7 @@
       </c>
       <c r="E54" s="31"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="36"/>
       <c r="B55" s="36"/>
       <c r="C55" s="26" t="s">
@@ -3406,7 +3419,7 @@
       </c>
       <c r="E55" s="31"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36"/>
       <c r="B56" s="36"/>
       <c r="C56" s="26" t="s">
@@ -3418,7 +3431,7 @@
       </c>
       <c r="E56" s="31"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="36"/>
       <c r="B57" s="36"/>
       <c r="C57" s="26" t="s">
@@ -3430,7 +3443,7 @@
       </c>
       <c r="E57" s="31"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="26" t="s">
@@ -3461,7 +3474,7 @@
         <v>129.64444444444445</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
       <c r="C60" s="26" t="s">
@@ -3473,7 +3486,7 @@
       </c>
       <c r="E60" s="31"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
       <c r="C61" s="26" t="s">
@@ -3485,7 +3498,7 @@
       </c>
       <c r="E61" s="31"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
       <c r="C62" s="26" t="s">
@@ -3497,7 +3510,7 @@
       </c>
       <c r="E62" s="31"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="36"/>
       <c r="B63" s="36"/>
       <c r="C63" s="26" t="s">
@@ -3509,7 +3522,7 @@
       </c>
       <c r="E63" s="31"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
       <c r="C64" s="26" t="s">
@@ -3521,7 +3534,7 @@
       </c>
       <c r="E64" s="31"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
       <c r="C65" s="26" t="s">
@@ -3533,7 +3546,7 @@
       </c>
       <c r="E65" s="31"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="36"/>
       <c r="B66" s="36"/>
       <c r="C66" s="26" t="s">
@@ -3564,7 +3577,7 @@
         <v>123.24444444444444</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36"/>
       <c r="B68" s="36"/>
       <c r="C68" s="26" t="s">
@@ -3576,7 +3589,7 @@
       </c>
       <c r="E68" s="31"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="36"/>
       <c r="B69" s="36"/>
       <c r="C69" s="26" t="s">
@@ -3588,7 +3601,7 @@
       </c>
       <c r="E69" s="31"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="36"/>
       <c r="B70" s="36"/>
       <c r="C70" s="26" t="s">
@@ -3600,7 +3613,7 @@
       </c>
       <c r="E70" s="31"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="36"/>
       <c r="B71" s="36"/>
       <c r="C71" s="26" t="s">
@@ -3612,7 +3625,7 @@
       </c>
       <c r="E71" s="31"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="36"/>
       <c r="B72" s="36"/>
       <c r="C72" s="26" t="s">
@@ -3624,7 +3637,7 @@
       </c>
       <c r="E72" s="31"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="36"/>
       <c r="B73" s="36"/>
       <c r="C73" s="26" t="s">
@@ -3636,7 +3649,7 @@
       </c>
       <c r="E73" s="31"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="36"/>
       <c r="B74" s="36"/>
       <c r="C74" s="26" t="s">
@@ -3667,7 +3680,7 @@
         <v>143.94444444444443</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36"/>
       <c r="B76" s="36"/>
       <c r="C76" s="26" t="s">
@@ -3679,7 +3692,7 @@
       </c>
       <c r="E76" s="31"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="36"/>
       <c r="B77" s="36"/>
       <c r="C77" s="26" t="s">
@@ -3691,7 +3704,7 @@
       </c>
       <c r="E77" s="31"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36"/>
       <c r="B78" s="36"/>
       <c r="C78" s="26" t="s">
@@ -3703,7 +3716,7 @@
       </c>
       <c r="E78" s="31"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36"/>
       <c r="B79" s="36"/>
       <c r="C79" s="26" t="s">
@@ -3715,7 +3728,7 @@
       </c>
       <c r="E79" s="31"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36"/>
       <c r="B80" s="36"/>
       <c r="C80" s="26" t="s">
@@ -3727,7 +3740,7 @@
       </c>
       <c r="E80" s="31"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36"/>
       <c r="B81" s="36"/>
       <c r="C81" s="26" t="s">
@@ -3739,7 +3752,7 @@
       </c>
       <c r="E81" s="31"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36"/>
       <c r="B82" s="36"/>
       <c r="C82" s="26" t="s">
@@ -3770,7 +3783,7 @@
         <v>150.94444444444443</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
       <c r="C84" s="26" t="s">
@@ -3782,7 +3795,7 @@
       </c>
       <c r="E84" s="31"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
       <c r="C85" s="26" t="s">
@@ -3794,7 +3807,7 @@
       </c>
       <c r="E85" s="31"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36"/>
       <c r="B86" s="36"/>
       <c r="C86" s="26" t="s">
@@ -3806,7 +3819,7 @@
       </c>
       <c r="E86" s="31"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="36"/>
       <c r="B87" s="36"/>
       <c r="C87" s="26" t="s">
@@ -3818,7 +3831,7 @@
       </c>
       <c r="E87" s="31"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
       <c r="C88" s="26" t="s">
@@ -3830,7 +3843,7 @@
       </c>
       <c r="E88" s="31"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="36"/>
       <c r="B89" s="36"/>
       <c r="C89" s="26" t="s">
@@ -3842,7 +3855,7 @@
       </c>
       <c r="E89" s="31"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
       <c r="C90" s="26" t="s">
@@ -3854,7 +3867,7 @@
       </c>
       <c r="E90" s="31"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="36"/>
       <c r="B91" s="36"/>
       <c r="C91" s="26" t="s">
@@ -3885,7 +3898,7 @@
         <v>167.17777777777775</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36"/>
       <c r="B93" s="36"/>
       <c r="C93" s="26" t="s">
@@ -3897,7 +3910,7 @@
       </c>
       <c r="E93" s="31"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36"/>
       <c r="B94" s="36"/>
       <c r="C94" s="26" t="s">
@@ -3909,7 +3922,7 @@
       </c>
       <c r="E94" s="31"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36"/>
       <c r="B95" s="36"/>
       <c r="C95" s="26" t="s">
@@ -3921,7 +3934,7 @@
       </c>
       <c r="E95" s="31"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
       <c r="C96" s="26" t="s">
@@ -3933,7 +3946,7 @@
       </c>
       <c r="E96" s="31"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36"/>
       <c r="B97" s="36"/>
       <c r="C97" s="26" t="s">
@@ -3945,7 +3958,7 @@
       </c>
       <c r="E97" s="31"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36"/>
       <c r="B98" s="36"/>
       <c r="C98" s="26" t="s">
@@ -3957,7 +3970,7 @@
       </c>
       <c r="E98" s="31"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
       <c r="C99" s="26" t="s">
@@ -3988,7 +4001,7 @@
         <v>145.44444444444443</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
       <c r="C101" s="26" t="s">
@@ -4000,7 +4013,7 @@
       </c>
       <c r="E101" s="31"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36"/>
       <c r="B102" s="36"/>
       <c r="C102" s="26" t="s">
@@ -4012,7 +4025,7 @@
       </c>
       <c r="E102" s="31"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="26" t="s">
@@ -4024,7 +4037,7 @@
       </c>
       <c r="E103" s="31"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="36"/>
       <c r="B104" s="36"/>
       <c r="C104" s="26" t="s">
@@ -4036,7 +4049,7 @@
       </c>
       <c r="E104" s="31"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
       <c r="C105" s="26" t="s">
@@ -4048,7 +4061,7 @@
       </c>
       <c r="E105" s="31"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="36"/>
       <c r="B106" s="36"/>
       <c r="C106" s="26" t="s">
@@ -4060,7 +4073,7 @@
       </c>
       <c r="E106" s="31"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
       <c r="C107" s="26" t="s">
@@ -4091,7 +4104,7 @@
         <v>142.44444444444443</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
       <c r="C109" s="26" t="s">
@@ -4103,7 +4116,7 @@
       </c>
       <c r="E109" s="31"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
       <c r="C110" s="26" t="s">
@@ -4115,7 +4128,7 @@
       </c>
       <c r="E110" s="31"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
       <c r="C111" s="26" t="s">
@@ -4127,7 +4140,7 @@
       </c>
       <c r="E111" s="31"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="36"/>
       <c r="B112" s="36"/>
       <c r="C112" s="26" t="s">
@@ -4139,7 +4152,7 @@
       </c>
       <c r="E112" s="31"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="36"/>
       <c r="B113" s="36"/>
       <c r="C113" s="26" t="s">
@@ -4151,7 +4164,7 @@
       </c>
       <c r="E113" s="31"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="36"/>
       <c r="B114" s="36"/>
       <c r="C114" s="26" t="s">
@@ -4163,7 +4176,7 @@
       </c>
       <c r="E114" s="31"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="36"/>
       <c r="B115" s="36"/>
       <c r="C115" s="26" t="s">
@@ -4194,7 +4207,7 @@
         <v>182.77222222222221</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="36"/>
       <c r="B117" s="36"/>
       <c r="C117" s="26" t="s">
@@ -4206,7 +4219,7 @@
       </c>
       <c r="E117" s="31"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="36"/>
       <c r="B118" s="36"/>
       <c r="C118" s="26" t="s">
@@ -4218,7 +4231,7 @@
       </c>
       <c r="E118" s="31"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="36"/>
       <c r="B119" s="36"/>
       <c r="C119" s="26" t="s">
@@ -4230,7 +4243,7 @@
       </c>
       <c r="E119" s="31"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="36"/>
       <c r="B120" s="36"/>
       <c r="C120" s="26" t="s">
@@ -4242,7 +4255,7 @@
       </c>
       <c r="E120" s="31"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="36"/>
       <c r="B121" s="36"/>
       <c r="C121" s="26" t="s">
@@ -4254,7 +4267,7 @@
       </c>
       <c r="E121" s="31"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
       <c r="C122" s="26" t="s">
@@ -4266,7 +4279,7 @@
       </c>
       <c r="E122" s="31"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="36"/>
       <c r="B123" s="36"/>
       <c r="C123" s="26" t="s">
@@ -4297,7 +4310,7 @@
         <v>143.94444444444443</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="36"/>
       <c r="B125" s="36"/>
       <c r="C125" s="26" t="s">
@@ -4309,7 +4322,7 @@
       </c>
       <c r="E125" s="31"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="36"/>
       <c r="B126" s="36"/>
       <c r="C126" s="26" t="s">
@@ -4321,7 +4334,7 @@
       </c>
       <c r="E126" s="31"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="36"/>
       <c r="B127" s="36"/>
       <c r="C127" s="26" t="s">
@@ -4333,7 +4346,7 @@
       </c>
       <c r="E127" s="31"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
       <c r="C128" s="26" t="s">
@@ -4345,7 +4358,7 @@
       </c>
       <c r="E128" s="31"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
       <c r="C129" s="26" t="s">
@@ -4357,7 +4370,7 @@
       </c>
       <c r="E129" s="31"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="36"/>
       <c r="B130" s="36"/>
       <c r="C130" s="26" t="s">
@@ -4369,7 +4382,7 @@
       </c>
       <c r="E130" s="31"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="36"/>
       <c r="B131" s="36"/>
       <c r="C131" s="26" t="s">
@@ -4400,7 +4413,7 @@
         <v>148.84444444444443</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="36"/>
       <c r="B133" s="36"/>
       <c r="C133" s="26" t="s">
@@ -4412,7 +4425,7 @@
       </c>
       <c r="E133" s="31"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="36"/>
       <c r="B134" s="36"/>
       <c r="C134" s="26" t="s">
@@ -4424,7 +4437,7 @@
       </c>
       <c r="E134" s="31"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="36"/>
       <c r="B135" s="36"/>
       <c r="C135" s="26" t="s">
@@ -4436,7 +4449,7 @@
       </c>
       <c r="E135" s="31"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
       <c r="C136" s="26" t="s">
@@ -4448,7 +4461,7 @@
       </c>
       <c r="E136" s="31"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="36"/>
       <c r="B137" s="36"/>
       <c r="C137" s="26" t="s">
@@ -4460,7 +4473,7 @@
       </c>
       <c r="E137" s="31"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="36"/>
       <c r="B138" s="36"/>
       <c r="C138" s="26" t="s">
@@ -4472,7 +4485,7 @@
       </c>
       <c r="E138" s="31"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="36"/>
       <c r="B139" s="36"/>
       <c r="C139" s="26" t="s">
@@ -4503,7 +4516,7 @@
         <v>142.44444444444443</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="36"/>
       <c r="B141" s="36"/>
       <c r="C141" s="26" t="s">
@@ -4515,7 +4528,7 @@
       </c>
       <c r="E141" s="31"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="36"/>
       <c r="B142" s="36"/>
       <c r="C142" s="26" t="s">
@@ -4527,7 +4540,7 @@
       </c>
       <c r="E142" s="31"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="36"/>
       <c r="B143" s="36"/>
       <c r="C143" s="26" t="s">
@@ -4539,7 +4552,7 @@
       </c>
       <c r="E143" s="31"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
       <c r="C144" s="26" t="s">
@@ -4551,7 +4564,7 @@
       </c>
       <c r="E144" s="31"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="36"/>
       <c r="B145" s="36"/>
       <c r="C145" s="26" t="s">
@@ -4563,7 +4576,7 @@
       </c>
       <c r="E145" s="31"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="36"/>
       <c r="B146" s="36"/>
       <c r="C146" s="26" t="s">
@@ -4575,7 +4588,7 @@
       </c>
       <c r="E146" s="31"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="36"/>
       <c r="B147" s="36"/>
       <c r="C147" s="26" t="s">
@@ -4606,7 +4619,7 @@
         <v>186.28888888888886</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="36"/>
       <c r="B149" s="36"/>
       <c r="C149" s="26" t="s">
@@ -4618,7 +4631,7 @@
       </c>
       <c r="E149" s="31"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="36"/>
       <c r="B150" s="36"/>
       <c r="C150" s="26" t="s">
@@ -4630,7 +4643,7 @@
       </c>
       <c r="E150" s="31"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="36"/>
       <c r="B151" s="36"/>
       <c r="C151" s="26" t="s">
@@ -4642,7 +4655,7 @@
       </c>
       <c r="E151" s="31"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="36"/>
       <c r="B152" s="36"/>
       <c r="C152" s="26" t="s">
@@ -4654,7 +4667,7 @@
       </c>
       <c r="E152" s="31"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="36"/>
       <c r="B153" s="36"/>
       <c r="C153" s="26" t="s">
@@ -4666,7 +4679,7 @@
       </c>
       <c r="E153" s="31"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="36"/>
       <c r="B154" s="36"/>
       <c r="C154" s="26" t="s">
@@ -4678,7 +4691,7 @@
       </c>
       <c r="E154" s="31"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="36"/>
       <c r="B155" s="36"/>
       <c r="C155" s="26" t="s">
@@ -4709,7 +4722,7 @@
         <v>193.28888888888886</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="36"/>
       <c r="B157" s="36"/>
       <c r="C157" s="26" t="s">
@@ -4721,7 +4734,7 @@
       </c>
       <c r="E157" s="31"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="36"/>
       <c r="B158" s="36"/>
       <c r="C158" s="26" t="s">
@@ -4733,7 +4746,7 @@
       </c>
       <c r="E158" s="31"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="36"/>
       <c r="B159" s="36"/>
       <c r="C159" s="26" t="s">
@@ -4745,7 +4758,7 @@
       </c>
       <c r="E159" s="31"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="36"/>
       <c r="B160" s="36"/>
       <c r="C160" s="26" t="s">
@@ -4757,7 +4770,7 @@
       </c>
       <c r="E160" s="31"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="36"/>
       <c r="B161" s="36"/>
       <c r="C161" s="26" t="s">
@@ -4769,7 +4782,7 @@
       </c>
       <c r="E161" s="31"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="36"/>
       <c r="B162" s="36"/>
       <c r="C162" s="26" t="s">
@@ -4781,7 +4794,7 @@
       </c>
       <c r="E162" s="31"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="36"/>
       <c r="B163" s="36"/>
       <c r="C163" s="26" t="s">
@@ -4793,7 +4806,7 @@
       </c>
       <c r="E163" s="31"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="36"/>
       <c r="B164" s="36"/>
       <c r="C164" s="26" t="s">
@@ -4824,7 +4837,7 @@
         <v>200.42222222222222</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="36"/>
       <c r="B166" s="36"/>
       <c r="C166" s="26" t="s">
@@ -4836,7 +4849,7 @@
       </c>
       <c r="E166" s="31"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="36"/>
       <c r="B167" s="36"/>
       <c r="C167" s="26" t="s">
@@ -4848,7 +4861,7 @@
       </c>
       <c r="E167" s="31"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="36"/>
       <c r="B168" s="36"/>
       <c r="C168" s="26" t="s">
@@ -4860,7 +4873,7 @@
       </c>
       <c r="E168" s="31"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="36"/>
       <c r="B169" s="36"/>
       <c r="C169" s="26" t="s">
@@ -4872,7 +4885,7 @@
       </c>
       <c r="E169" s="31"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="36"/>
       <c r="B170" s="36"/>
       <c r="C170" s="26" t="s">
@@ -4884,7 +4897,7 @@
       </c>
       <c r="E170" s="31"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="36"/>
       <c r="B171" s="36"/>
       <c r="C171" s="26" t="s">
@@ -4896,7 +4909,7 @@
       </c>
       <c r="E171" s="31"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="36"/>
       <c r="B172" s="36"/>
       <c r="C172" s="26" t="s">
@@ -4927,7 +4940,7 @@
         <v>187.78888888888886</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="36"/>
       <c r="B174" s="36"/>
       <c r="C174" s="26" t="s">
@@ -4939,7 +4952,7 @@
       </c>
       <c r="E174" s="31"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="36"/>
       <c r="B175" s="36"/>
       <c r="C175" s="26" t="s">
@@ -4951,7 +4964,7 @@
       </c>
       <c r="E175" s="31"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="36"/>
       <c r="B176" s="36"/>
       <c r="C176" s="26" t="s">
@@ -4963,7 +4976,7 @@
       </c>
       <c r="E176" s="31"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="36"/>
       <c r="B177" s="36"/>
       <c r="C177" s="26" t="s">
@@ -4975,7 +4988,7 @@
       </c>
       <c r="E177" s="31"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="36"/>
       <c r="B178" s="36"/>
       <c r="C178" s="26" t="s">
@@ -4987,7 +5000,7 @@
       </c>
       <c r="E178" s="31"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="36"/>
       <c r="B179" s="36"/>
       <c r="C179" s="26" t="s">
@@ -4999,7 +5012,7 @@
       </c>
       <c r="E179" s="31"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="36"/>
       <c r="B180" s="36"/>
       <c r="C180" s="26" t="s">
@@ -5030,7 +5043,7 @@
         <v>184.78888888888886</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="36"/>
       <c r="B182" s="36"/>
       <c r="C182" s="26" t="s">
@@ -5042,7 +5055,7 @@
       </c>
       <c r="E182" s="31"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="36"/>
       <c r="B183" s="36"/>
       <c r="C183" s="26" t="s">
@@ -5054,7 +5067,7 @@
       </c>
       <c r="E183" s="31"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="36"/>
       <c r="B184" s="36"/>
       <c r="C184" s="26" t="s">
@@ -5066,7 +5079,7 @@
       </c>
       <c r="E184" s="31"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="36"/>
       <c r="B185" s="36"/>
       <c r="C185" s="26" t="s">
@@ -5078,7 +5091,7 @@
       </c>
       <c r="E185" s="31"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="36"/>
       <c r="B186" s="36"/>
       <c r="C186" s="26" t="s">
@@ -5090,7 +5103,7 @@
       </c>
       <c r="E186" s="31"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="36"/>
       <c r="B187" s="36"/>
       <c r="C187" s="26" t="s">
@@ -5102,7 +5115,7 @@
       </c>
       <c r="E187" s="31"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="36"/>
       <c r="B188" s="36"/>
       <c r="C188" s="26" t="s">
@@ -5133,7 +5146,7 @@
         <v>235.74444444444444</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="36"/>
       <c r="B190" s="36"/>
       <c r="C190" s="26" t="s">
@@ -5145,7 +5158,7 @@
       </c>
       <c r="E190" s="31"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="36"/>
       <c r="B191" s="36"/>
       <c r="C191" s="26" t="s">
@@ -5157,7 +5170,7 @@
       </c>
       <c r="E191" s="31"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="36"/>
       <c r="B192" s="36"/>
       <c r="C192" s="26" t="s">
@@ -5169,7 +5182,7 @@
       </c>
       <c r="E192" s="31"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="36"/>
       <c r="B193" s="36"/>
       <c r="C193" s="26" t="s">
@@ -5181,7 +5194,7 @@
       </c>
       <c r="E193" s="31"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="36"/>
       <c r="B194" s="36"/>
       <c r="C194" s="26" t="s">
@@ -5193,7 +5206,7 @@
       </c>
       <c r="E194" s="31"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="36"/>
       <c r="B195" s="36"/>
       <c r="C195" s="26" t="s">
@@ -5205,7 +5218,7 @@
       </c>
       <c r="E195" s="31"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="36"/>
       <c r="B196" s="36"/>
       <c r="C196" s="26" t="s">
@@ -5236,7 +5249,7 @@
         <v>186.28888888888886</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="36"/>
       <c r="B198" s="36"/>
       <c r="C198" s="26" t="s">
@@ -5248,7 +5261,7 @@
       </c>
       <c r="E198" s="31"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="36"/>
       <c r="B199" s="36"/>
       <c r="C199" s="26" t="s">
@@ -5260,7 +5273,7 @@
       </c>
       <c r="E199" s="31"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="36"/>
       <c r="B200" s="36"/>
       <c r="C200" s="26" t="s">
@@ -5272,7 +5285,7 @@
       </c>
       <c r="E200" s="31"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="36"/>
       <c r="B201" s="36"/>
       <c r="C201" s="26" t="s">
@@ -5284,7 +5297,7 @@
       </c>
       <c r="E201" s="31"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="36"/>
       <c r="B202" s="36"/>
       <c r="C202" s="26" t="s">
@@ -5296,7 +5309,7 @@
       </c>
       <c r="E202" s="31"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="36"/>
       <c r="B203" s="36"/>
       <c r="C203" s="26" t="s">
@@ -5308,7 +5321,7 @@
       </c>
       <c r="E203" s="31"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="36"/>
       <c r="B204" s="36"/>
       <c r="C204" s="26" t="s">
@@ -5339,7 +5352,7 @@
         <v>196.08888888888887</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="36"/>
       <c r="B206" s="36"/>
       <c r="C206" s="26" t="s">
@@ -5351,7 +5364,7 @@
       </c>
       <c r="E206" s="31"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="36"/>
       <c r="B207" s="36"/>
       <c r="C207" s="26" t="s">
@@ -5363,7 +5376,7 @@
       </c>
       <c r="E207" s="31"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="36"/>
       <c r="B208" s="36"/>
       <c r="C208" s="26" t="s">
@@ -5375,7 +5388,7 @@
       </c>
       <c r="E208" s="31"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="36"/>
       <c r="B209" s="36"/>
       <c r="C209" s="26" t="s">
@@ -5387,7 +5400,7 @@
       </c>
       <c r="E209" s="31"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="36"/>
       <c r="B210" s="36"/>
       <c r="C210" s="26" t="s">
@@ -5399,7 +5412,7 @@
       </c>
       <c r="E210" s="31"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="36"/>
       <c r="B211" s="36"/>
       <c r="C211" s="26" t="s">
@@ -5411,7 +5424,7 @@
       </c>
       <c r="E211" s="31"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="36"/>
       <c r="B212" s="36"/>
       <c r="C212" s="26" t="s">
@@ -5442,7 +5455,7 @@
         <v>184.78888888888886</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="36"/>
       <c r="B214" s="36"/>
       <c r="C214" s="26" t="s">
@@ -5454,7 +5467,7 @@
       </c>
       <c r="E214" s="31"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="36"/>
       <c r="B215" s="36"/>
       <c r="C215" s="26" t="s">
@@ -5466,7 +5479,7 @@
       </c>
       <c r="E215" s="31"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="36"/>
       <c r="B216" s="36"/>
       <c r="C216" s="26" t="s">
@@ -5478,7 +5491,7 @@
       </c>
       <c r="E216" s="31"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="36"/>
       <c r="B217" s="36"/>
       <c r="C217" s="26" t="s">
@@ -5490,7 +5503,7 @@
       </c>
       <c r="E217" s="31"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="36"/>
       <c r="B218" s="36"/>
       <c r="C218" s="26" t="s">
@@ -5502,7 +5515,7 @@
       </c>
       <c r="E218" s="31"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="36"/>
       <c r="B219" s="36"/>
       <c r="C219" s="26" t="s">
@@ -5514,7 +5527,7 @@
       </c>
       <c r="E219" s="31"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="36"/>
       <c r="B220" s="36"/>
       <c r="C220" s="26" t="s">
@@ -5545,7 +5558,7 @@
         <v>224.68888888888884</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="36"/>
       <c r="B222" s="36"/>
       <c r="C222" s="26" t="s">
@@ -5557,7 +5570,7 @@
       </c>
       <c r="E222" s="31"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="36"/>
       <c r="B223" s="36"/>
       <c r="C223" s="26" t="s">
@@ -5569,7 +5582,7 @@
       </c>
       <c r="E223" s="31"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="36"/>
       <c r="B224" s="36"/>
       <c r="C224" s="26" t="s">
@@ -5581,7 +5594,7 @@
       </c>
       <c r="E224" s="31"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="36"/>
       <c r="B225" s="36"/>
       <c r="C225" s="26" t="s">
@@ -5593,7 +5606,7 @@
       </c>
       <c r="E225" s="31"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="36"/>
       <c r="B226" s="36"/>
       <c r="C226" s="26" t="s">
@@ -5605,7 +5618,7 @@
       </c>
       <c r="E226" s="31"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="36"/>
       <c r="B227" s="36"/>
       <c r="C227" s="26" t="s">
@@ -5617,7 +5630,7 @@
       </c>
       <c r="E227" s="31"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="36"/>
       <c r="B228" s="36"/>
       <c r="C228" s="26" t="s">
@@ -5648,7 +5661,7 @@
         <v>231.68888888888884</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="36"/>
       <c r="B230" s="36"/>
       <c r="C230" s="26" t="s">
@@ -5660,7 +5673,7 @@
       </c>
       <c r="E230" s="31"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="36"/>
       <c r="B231" s="36"/>
       <c r="C231" s="26" t="s">
@@ -5672,7 +5685,7 @@
       </c>
       <c r="E231" s="31"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="36"/>
       <c r="B232" s="36"/>
       <c r="C232" s="26" t="s">
@@ -5684,7 +5697,7 @@
       </c>
       <c r="E232" s="31"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="36"/>
       <c r="B233" s="36"/>
       <c r="C233" s="26" t="s">
@@ -5696,7 +5709,7 @@
       </c>
       <c r="E233" s="31"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="36"/>
       <c r="B234" s="36"/>
       <c r="C234" s="26" t="s">
@@ -5708,7 +5721,7 @@
       </c>
       <c r="E234" s="31"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="36"/>
       <c r="B235" s="36"/>
       <c r="C235" s="26" t="s">
@@ -5720,7 +5733,7 @@
       </c>
       <c r="E235" s="31"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="36"/>
       <c r="B236" s="36"/>
       <c r="C236" s="26" t="s">
@@ -5732,7 +5745,7 @@
       </c>
       <c r="E236" s="31"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="36"/>
       <c r="B237" s="36"/>
       <c r="C237" s="26" t="s">
@@ -5763,7 +5776,7 @@
         <v>238.82222222222219</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="36"/>
       <c r="B239" s="36"/>
       <c r="C239" s="26" t="s">
@@ -5775,7 +5788,7 @@
       </c>
       <c r="E239" s="31"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="36"/>
       <c r="B240" s="36"/>
       <c r="C240" s="26" t="s">
@@ -5787,7 +5800,7 @@
       </c>
       <c r="E240" s="31"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="36"/>
       <c r="B241" s="36"/>
       <c r="C241" s="26" t="s">
@@ -5799,7 +5812,7 @@
       </c>
       <c r="E241" s="31"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="36"/>
       <c r="B242" s="36"/>
       <c r="C242" s="26" t="s">
@@ -5811,7 +5824,7 @@
       </c>
       <c r="E242" s="31"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="36"/>
       <c r="B243" s="36"/>
       <c r="C243" s="26" t="s">
@@ -5823,7 +5836,7 @@
       </c>
       <c r="E243" s="31"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="36"/>
       <c r="B244" s="36"/>
       <c r="C244" s="26" t="s">
@@ -5835,7 +5848,7 @@
       </c>
       <c r="E244" s="31"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="36"/>
       <c r="B245" s="36"/>
       <c r="C245" s="26" t="s">
@@ -5866,7 +5879,7 @@
         <v>226.18888888888884</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="36"/>
       <c r="B247" s="36"/>
       <c r="C247" s="26" t="s">
@@ -5878,7 +5891,7 @@
       </c>
       <c r="E247" s="31"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="36"/>
       <c r="B248" s="36"/>
       <c r="C248" s="26" t="s">
@@ -5890,7 +5903,7 @@
       </c>
       <c r="E248" s="31"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="36"/>
       <c r="B249" s="36"/>
       <c r="C249" s="26" t="s">
@@ -5902,7 +5915,7 @@
       </c>
       <c r="E249" s="31"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="36"/>
       <c r="B250" s="36"/>
       <c r="C250" s="26" t="s">
@@ -5914,7 +5927,7 @@
       </c>
       <c r="E250" s="31"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="36"/>
       <c r="B251" s="36"/>
       <c r="C251" s="26" t="s">
@@ -5926,7 +5939,7 @@
       </c>
       <c r="E251" s="31"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="36"/>
       <c r="B252" s="36"/>
       <c r="C252" s="26" t="s">
@@ -5938,7 +5951,7 @@
       </c>
       <c r="E252" s="31"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="36"/>
       <c r="B253" s="36"/>
       <c r="C253" s="26" t="s">
@@ -5969,7 +5982,7 @@
         <v>223.18888888888884</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="36"/>
       <c r="B255" s="36"/>
       <c r="C255" s="26" t="s">
@@ -5981,7 +5994,7 @@
       </c>
       <c r="E255" s="31"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="36"/>
       <c r="B256" s="36"/>
       <c r="C256" s="26" t="s">
@@ -5993,7 +6006,7 @@
       </c>
       <c r="E256" s="31"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="36"/>
       <c r="B257" s="36"/>
       <c r="C257" s="26" t="s">
@@ -6005,7 +6018,7 @@
       </c>
       <c r="E257" s="31"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="36"/>
       <c r="B258" s="36"/>
       <c r="C258" s="26" t="s">
@@ -6017,7 +6030,7 @@
       </c>
       <c r="E258" s="31"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="36"/>
       <c r="B259" s="36"/>
       <c r="C259" s="26" t="s">
@@ -6029,7 +6042,7 @@
       </c>
       <c r="E259" s="31"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="36"/>
       <c r="B260" s="36"/>
       <c r="C260" s="26" t="s">
@@ -6041,7 +6054,7 @@
       </c>
       <c r="E260" s="31"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="36"/>
       <c r="B261" s="36"/>
       <c r="C261" s="26" t="s">
@@ -6072,7 +6085,7 @@
         <v>274.14444444444439</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="36"/>
       <c r="B263" s="36"/>
       <c r="C263" s="26" t="s">
@@ -6084,7 +6097,7 @@
       </c>
       <c r="E263" s="31"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="36"/>
       <c r="B264" s="36"/>
       <c r="C264" s="26" t="s">
@@ -6096,7 +6109,7 @@
       </c>
       <c r="E264" s="31"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="36"/>
       <c r="B265" s="36"/>
       <c r="C265" s="26" t="s">
@@ -6108,7 +6121,7 @@
       </c>
       <c r="E265" s="31"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="36"/>
       <c r="B266" s="36"/>
       <c r="C266" s="26" t="s">
@@ -6120,7 +6133,7 @@
       </c>
       <c r="E266" s="31"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="36"/>
       <c r="B267" s="36"/>
       <c r="C267" s="26" t="s">
@@ -6132,7 +6145,7 @@
       </c>
       <c r="E267" s="31"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="36"/>
       <c r="B268" s="36"/>
       <c r="C268" s="26" t="s">
@@ -6144,7 +6157,7 @@
       </c>
       <c r="E268" s="31"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="36"/>
       <c r="B269" s="36"/>
       <c r="C269" s="26" t="s">
@@ -6175,7 +6188,7 @@
         <v>224.68888888888884</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="36"/>
       <c r="B271" s="36"/>
       <c r="C271" s="26" t="s">
@@ -6187,7 +6200,7 @@
       </c>
       <c r="E271" s="31"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="36"/>
       <c r="B272" s="36"/>
       <c r="C272" s="26" t="s">
@@ -6199,7 +6212,7 @@
       </c>
       <c r="E272" s="31"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="36"/>
       <c r="B273" s="36"/>
       <c r="C273" s="26" t="s">
@@ -6211,7 +6224,7 @@
       </c>
       <c r="E273" s="31"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="36"/>
       <c r="B274" s="36"/>
       <c r="C274" s="26" t="s">
@@ -6223,7 +6236,7 @@
       </c>
       <c r="E274" s="31"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="36"/>
       <c r="B275" s="36"/>
       <c r="C275" s="26" t="s">
@@ -6235,7 +6248,7 @@
       </c>
       <c r="E275" s="31"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="36"/>
       <c r="B276" s="36"/>
       <c r="C276" s="26" t="s">
@@ -6247,7 +6260,7 @@
       </c>
       <c r="E276" s="31"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="36"/>
       <c r="B277" s="36"/>
       <c r="C277" s="26" t="s">
@@ -6278,7 +6291,7 @@
         <v>234.48888888888885</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="36"/>
       <c r="B279" s="36"/>
       <c r="C279" s="26" t="s">
@@ -6290,7 +6303,7 @@
       </c>
       <c r="E279" s="31"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="36"/>
       <c r="B280" s="36"/>
       <c r="C280" s="26" t="s">
@@ -6302,7 +6315,7 @@
       </c>
       <c r="E280" s="31"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="36"/>
       <c r="B281" s="36"/>
       <c r="C281" s="26" t="s">
@@ -6314,7 +6327,7 @@
       </c>
       <c r="E281" s="31"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="36"/>
       <c r="B282" s="36"/>
       <c r="C282" s="26" t="s">
@@ -6326,7 +6339,7 @@
       </c>
       <c r="E282" s="31"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="36"/>
       <c r="B283" s="36"/>
       <c r="C283" s="26" t="s">
@@ -6338,7 +6351,7 @@
       </c>
       <c r="E283" s="31"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="36"/>
       <c r="B284" s="36"/>
       <c r="C284" s="26" t="s">
@@ -6350,7 +6363,7 @@
       </c>
       <c r="E284" s="31"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="36"/>
       <c r="B285" s="36"/>
       <c r="C285" s="26" t="s">
@@ -6381,7 +6394,7 @@
         <v>223.18888888888884</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="36"/>
       <c r="B287" s="36"/>
       <c r="C287" s="26" t="s">
@@ -6393,7 +6406,7 @@
       </c>
       <c r="E287" s="31"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="36"/>
       <c r="B288" s="36"/>
       <c r="C288" s="26" t="s">
@@ -6405,7 +6418,7 @@
       </c>
       <c r="E288" s="31"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="36"/>
       <c r="B289" s="36"/>
       <c r="C289" s="26" t="s">
@@ -6417,7 +6430,7 @@
       </c>
       <c r="E289" s="31"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="36"/>
       <c r="B290" s="36"/>
       <c r="C290" s="26" t="s">
@@ -6429,7 +6442,7 @@
       </c>
       <c r="E290" s="31"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="36"/>
       <c r="B291" s="36"/>
       <c r="C291" s="26" t="s">
@@ -6441,7 +6454,7 @@
       </c>
       <c r="E291" s="31"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="36"/>
       <c r="B292" s="36"/>
       <c r="C292" s="26" t="s">
@@ -6453,7 +6466,7 @@
       </c>
       <c r="E292" s="31"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="36"/>
       <c r="B293" s="36"/>
       <c r="C293" s="26" t="s">
@@ -6484,7 +6497,7 @@
         <v>247.83333333333331</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="36"/>
       <c r="B295" s="36"/>
       <c r="C295" s="26" t="s">
@@ -6496,7 +6509,7 @@
       </c>
       <c r="E295" s="31"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="36"/>
       <c r="B296" s="36"/>
       <c r="C296" s="26" t="s">
@@ -6508,7 +6521,7 @@
       </c>
       <c r="E296" s="31"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="36"/>
       <c r="B297" s="36"/>
       <c r="C297" s="26" t="s">
@@ -6520,7 +6533,7 @@
       </c>
       <c r="E297" s="31"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="36"/>
       <c r="B298" s="36"/>
       <c r="C298" s="26" t="s">
@@ -6532,7 +6545,7 @@
       </c>
       <c r="E298" s="31"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="36"/>
       <c r="B299" s="36"/>
       <c r="C299" s="26" t="s">
@@ -6544,7 +6557,7 @@
       </c>
       <c r="E299" s="31"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="36"/>
       <c r="B300" s="36"/>
       <c r="C300" s="26" t="s">
@@ -6556,7 +6569,7 @@
       </c>
       <c r="E300" s="31"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="36"/>
       <c r="B301" s="36"/>
       <c r="C301" s="26" t="s">
@@ -6587,7 +6600,7 @@
         <v>254.83333333333331</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="36"/>
       <c r="B303" s="36"/>
       <c r="C303" s="26" t="s">
@@ -6599,7 +6612,7 @@
       </c>
       <c r="E303" s="31"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="36"/>
       <c r="B304" s="36"/>
       <c r="C304" s="26" t="s">
@@ -6611,7 +6624,7 @@
       </c>
       <c r="E304" s="31"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="36"/>
       <c r="B305" s="36"/>
       <c r="C305" s="26" t="s">
@@ -6623,7 +6636,7 @@
       </c>
       <c r="E305" s="31"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="36"/>
       <c r="B306" s="36"/>
       <c r="C306" s="26" t="s">
@@ -6635,7 +6648,7 @@
       </c>
       <c r="E306" s="31"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="36"/>
       <c r="B307" s="36"/>
       <c r="C307" s="26" t="s">
@@ -6647,7 +6660,7 @@
       </c>
       <c r="E307" s="31"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="36"/>
       <c r="B308" s="36"/>
       <c r="C308" s="26" t="s">
@@ -6659,7 +6672,7 @@
       </c>
       <c r="E308" s="31"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="36"/>
       <c r="B309" s="36"/>
       <c r="C309" s="26" t="s">
@@ -6671,7 +6684,7 @@
       </c>
       <c r="E309" s="31"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="36"/>
       <c r="B310" s="36"/>
       <c r="C310" s="26" t="s">
@@ -6702,7 +6715,7 @@
         <v>252.86666666666667</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="36"/>
       <c r="B312" s="36"/>
       <c r="C312" s="26" t="s">
@@ -6714,7 +6727,7 @@
       </c>
       <c r="E312" s="31"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="36"/>
       <c r="B313" s="36"/>
       <c r="C313" s="26" t="s">
@@ -6726,7 +6739,7 @@
       </c>
       <c r="E313" s="31"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="36"/>
       <c r="B314" s="36"/>
       <c r="C314" s="26" t="s">
@@ -6738,7 +6751,7 @@
       </c>
       <c r="E314" s="31"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="36"/>
       <c r="B315" s="36"/>
       <c r="C315" s="26" t="s">
@@ -6750,7 +6763,7 @@
       </c>
       <c r="E315" s="31"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="36"/>
       <c r="B316" s="36"/>
       <c r="C316" s="26" t="s">
@@ -6762,7 +6775,7 @@
       </c>
       <c r="E316" s="31"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="36"/>
       <c r="B317" s="36"/>
       <c r="C317" s="26" t="s">
@@ -6774,7 +6787,7 @@
       </c>
       <c r="E317" s="31"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="36"/>
       <c r="B318" s="36"/>
       <c r="C318" s="26" t="s">
@@ -6805,7 +6818,7 @@
         <v>249.33333333333331</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="36"/>
       <c r="B320" s="36"/>
       <c r="C320" s="26" t="s">
@@ -6817,7 +6830,7 @@
       </c>
       <c r="E320" s="31"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="36"/>
       <c r="B321" s="36"/>
       <c r="C321" s="26" t="s">
@@ -6829,7 +6842,7 @@
       </c>
       <c r="E321" s="31"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="36"/>
       <c r="B322" s="36"/>
       <c r="C322" s="26" t="s">
@@ -6841,7 +6854,7 @@
       </c>
       <c r="E322" s="31"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="36"/>
       <c r="B323" s="36"/>
       <c r="C323" s="26" t="s">
@@ -6853,7 +6866,7 @@
       </c>
       <c r="E323" s="31"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="36"/>
       <c r="B324" s="36"/>
       <c r="C324" s="26" t="s">
@@ -6865,7 +6878,7 @@
       </c>
       <c r="E324" s="31"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="36"/>
       <c r="B325" s="36"/>
       <c r="C325" s="26" t="s">
@@ -6877,7 +6890,7 @@
       </c>
       <c r="E325" s="31"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="36"/>
       <c r="B326" s="36"/>
       <c r="C326" s="26" t="s">
@@ -6908,7 +6921,7 @@
         <v>246.33333333333331</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="36"/>
       <c r="B328" s="36"/>
       <c r="C328" s="26" t="s">
@@ -6920,7 +6933,7 @@
       </c>
       <c r="E328" s="31"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="36"/>
       <c r="B329" s="36"/>
       <c r="C329" s="26" t="s">
@@ -6932,7 +6945,7 @@
       </c>
       <c r="E329" s="31"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="36"/>
       <c r="B330" s="36"/>
       <c r="C330" s="26" t="s">
@@ -6944,7 +6957,7 @@
       </c>
       <c r="E330" s="31"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="36"/>
       <c r="B331" s="36"/>
       <c r="C331" s="26" t="s">
@@ -6956,7 +6969,7 @@
       </c>
       <c r="E331" s="31"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="36"/>
       <c r="B332" s="36"/>
       <c r="C332" s="26" t="s">
@@ -6968,7 +6981,7 @@
       </c>
       <c r="E332" s="31"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="36"/>
       <c r="B333" s="36"/>
       <c r="C333" s="26" t="s">
@@ -6980,7 +6993,7 @@
       </c>
       <c r="E333" s="31"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="36"/>
       <c r="B334" s="36"/>
       <c r="C334" s="26" t="s">
@@ -7011,7 +7024,7 @@
         <v>307.91666666666663</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="36"/>
       <c r="B336" s="36"/>
       <c r="C336" s="26" t="s">
@@ -7023,7 +7036,7 @@
       </c>
       <c r="E336" s="31"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="36"/>
       <c r="B337" s="36"/>
       <c r="C337" s="26" t="s">
@@ -7035,7 +7048,7 @@
       </c>
       <c r="E337" s="31"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="36"/>
       <c r="B338" s="36"/>
       <c r="C338" s="26" t="s">
@@ -7047,7 +7060,7 @@
       </c>
       <c r="E338" s="31"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="36"/>
       <c r="B339" s="36"/>
       <c r="C339" s="26" t="s">
@@ -7059,7 +7072,7 @@
       </c>
       <c r="E339" s="31"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="36"/>
       <c r="B340" s="36"/>
       <c r="C340" s="26" t="s">
@@ -7071,7 +7084,7 @@
       </c>
       <c r="E340" s="31"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="36"/>
       <c r="B341" s="36"/>
       <c r="C341" s="26" t="s">
@@ -7083,7 +7096,7 @@
       </c>
       <c r="E341" s="31"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="36"/>
       <c r="B342" s="36"/>
       <c r="C342" s="26" t="s">
@@ -7114,7 +7127,7 @@
         <v>247.83333333333331</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="36"/>
       <c r="B344" s="36"/>
       <c r="C344" s="26" t="s">
@@ -7126,7 +7139,7 @@
       </c>
       <c r="E344" s="31"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="36"/>
       <c r="B345" s="36"/>
       <c r="C345" s="26" t="s">
@@ -7138,7 +7151,7 @@
       </c>
       <c r="E345" s="31"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="36"/>
       <c r="B346" s="36"/>
       <c r="C346" s="26" t="s">
@@ -7150,7 +7163,7 @@
       </c>
       <c r="E346" s="31"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="36"/>
       <c r="B347" s="36"/>
       <c r="C347" s="26" t="s">
@@ -7162,7 +7175,7 @@
       </c>
       <c r="E347" s="31"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="36"/>
       <c r="B348" s="36"/>
       <c r="C348" s="26" t="s">
@@ -7174,7 +7187,7 @@
       </c>
       <c r="E348" s="31"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="36"/>
       <c r="B349" s="36"/>
       <c r="C349" s="26" t="s">
@@ -7186,7 +7199,7 @@
       </c>
       <c r="E349" s="31"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="36"/>
       <c r="B350" s="36"/>
       <c r="C350" s="26" t="s">
@@ -7217,7 +7230,7 @@
         <v>262.5333333333333</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="36"/>
       <c r="B352" s="36"/>
       <c r="C352" s="26" t="s">
@@ -7229,7 +7242,7 @@
       </c>
       <c r="E352" s="31"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="36"/>
       <c r="B353" s="36"/>
       <c r="C353" s="26" t="s">
@@ -7241,7 +7254,7 @@
       </c>
       <c r="E353" s="31"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="36"/>
       <c r="B354" s="36"/>
       <c r="C354" s="26" t="s">
@@ -7253,7 +7266,7 @@
       </c>
       <c r="E354" s="31"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="36"/>
       <c r="B355" s="36"/>
       <c r="C355" s="26" t="s">
@@ -7265,7 +7278,7 @@
       </c>
       <c r="E355" s="31"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="36"/>
       <c r="B356" s="36"/>
       <c r="C356" s="26" t="s">
@@ -7277,7 +7290,7 @@
       </c>
       <c r="E356" s="31"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="36"/>
       <c r="B357" s="36"/>
       <c r="C357" s="26" t="s">
@@ -7289,7 +7302,7 @@
       </c>
       <c r="E357" s="31"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="36"/>
       <c r="B358" s="36"/>
       <c r="C358" s="26" t="s">
@@ -7320,7 +7333,7 @@
         <v>246.33333333333331</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="36"/>
       <c r="B360" s="36"/>
       <c r="C360" s="26" t="s">
@@ -7332,7 +7345,7 @@
       </c>
       <c r="E360" s="31"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="36"/>
       <c r="B361" s="36"/>
       <c r="C361" s="26" t="s">
@@ -7344,7 +7357,7 @@
       </c>
       <c r="E361" s="31"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="36"/>
       <c r="B362" s="36"/>
       <c r="C362" s="26" t="s">
@@ -7356,7 +7369,7 @@
       </c>
       <c r="E362" s="31"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="36"/>
       <c r="B363" s="36"/>
       <c r="C363" s="26" t="s">
@@ -7368,7 +7381,7 @@
       </c>
       <c r="E363" s="31"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="36"/>
       <c r="B364" s="36"/>
       <c r="C364" s="26" t="s">
@@ -7380,7 +7393,7 @@
       </c>
       <c r="E364" s="31"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="36"/>
       <c r="B365" s="36"/>
       <c r="C365" s="26" t="s">
@@ -7392,7 +7405,7 @@
       </c>
       <c r="E365" s="31"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="36"/>
       <c r="B366" s="36"/>
       <c r="C366" s="26" t="s">
@@ -7423,7 +7436,7 @@
         <v>305.43333333333334</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="36"/>
       <c r="B368" s="36"/>
       <c r="C368" s="26" t="s">
@@ -7435,7 +7448,7 @@
       </c>
       <c r="E368" s="31"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="36"/>
       <c r="B369" s="36"/>
       <c r="C369" s="26" t="s">
@@ -7447,7 +7460,7 @@
       </c>
       <c r="E369" s="31"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="36"/>
       <c r="B370" s="36"/>
       <c r="C370" s="26" t="s">
@@ -7459,7 +7472,7 @@
       </c>
       <c r="E370" s="31"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="36"/>
       <c r="B371" s="36"/>
       <c r="C371" s="26" t="s">
@@ -7471,7 +7484,7 @@
       </c>
       <c r="E371" s="31"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="36"/>
       <c r="B372" s="36"/>
       <c r="C372" s="26" t="s">
@@ -7483,7 +7496,7 @@
       </c>
       <c r="E372" s="31"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="36"/>
       <c r="B373" s="36"/>
       <c r="C373" s="26" t="s">
@@ -7495,7 +7508,7 @@
       </c>
       <c r="E373" s="31"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="36"/>
       <c r="B374" s="36"/>
       <c r="C374" s="26" t="s">
@@ -7526,7 +7539,7 @@
         <v>312.43333333333334</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="36"/>
       <c r="B376" s="36"/>
       <c r="C376" s="26" t="s">
@@ -7538,7 +7551,7 @@
       </c>
       <c r="E376" s="31"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="36"/>
       <c r="B377" s="36"/>
       <c r="C377" s="26" t="s">
@@ -7550,7 +7563,7 @@
       </c>
       <c r="E377" s="31"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="36"/>
       <c r="B378" s="36"/>
       <c r="C378" s="26" t="s">
@@ -7562,7 +7575,7 @@
       </c>
       <c r="E378" s="31"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="36"/>
       <c r="B379" s="36"/>
       <c r="C379" s="26" t="s">
@@ -7574,7 +7587,7 @@
       </c>
       <c r="E379" s="31"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="36"/>
       <c r="B380" s="36"/>
       <c r="C380" s="26" t="s">
@@ -7586,7 +7599,7 @@
       </c>
       <c r="E380" s="31"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="36"/>
       <c r="B381" s="36"/>
       <c r="C381" s="26" t="s">
@@ -7598,7 +7611,7 @@
       </c>
       <c r="E381" s="31"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="36"/>
       <c r="B382" s="36"/>
       <c r="C382" s="26" t="s">
@@ -7610,7 +7623,7 @@
       </c>
       <c r="E382" s="31"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="36"/>
       <c r="B383" s="36"/>
       <c r="C383" s="26" t="s">
@@ -7641,7 +7654,7 @@
         <v>310.4666666666667</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="36"/>
       <c r="B385" s="36"/>
       <c r="C385" s="26" t="s">
@@ -7653,7 +7666,7 @@
       </c>
       <c r="E385" s="31"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="36"/>
       <c r="B386" s="36"/>
       <c r="C386" s="26" t="s">
@@ -7665,7 +7678,7 @@
       </c>
       <c r="E386" s="31"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="36"/>
       <c r="B387" s="36"/>
       <c r="C387" s="26" t="s">
@@ -7677,7 +7690,7 @@
       </c>
       <c r="E387" s="31"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="36"/>
       <c r="B388" s="36"/>
       <c r="C388" s="26" t="s">
@@ -7689,7 +7702,7 @@
       </c>
       <c r="E388" s="31"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="36"/>
       <c r="B389" s="36"/>
       <c r="C389" s="26" t="s">
@@ -7701,7 +7714,7 @@
       </c>
       <c r="E389" s="31"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="36"/>
       <c r="B390" s="36"/>
       <c r="C390" s="26" t="s">
@@ -7713,7 +7726,7 @@
       </c>
       <c r="E390" s="31"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="36"/>
       <c r="B391" s="36"/>
       <c r="C391" s="26" t="s">
@@ -7744,7 +7757,7 @@
         <v>306.93333333333334</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="36"/>
       <c r="B393" s="36"/>
       <c r="C393" s="26" t="s">
@@ -7756,7 +7769,7 @@
       </c>
       <c r="E393" s="31"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="36"/>
       <c r="B394" s="36"/>
       <c r="C394" s="26" t="s">
@@ -7768,7 +7781,7 @@
       </c>
       <c r="E394" s="31"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="36"/>
       <c r="B395" s="36"/>
       <c r="C395" s="26" t="s">
@@ -7780,7 +7793,7 @@
       </c>
       <c r="E395" s="31"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="36"/>
       <c r="B396" s="36"/>
       <c r="C396" s="26" t="s">
@@ -7792,7 +7805,7 @@
       </c>
       <c r="E396" s="31"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="36"/>
       <c r="B397" s="36"/>
       <c r="C397" s="26" t="s">
@@ -7804,7 +7817,7 @@
       </c>
       <c r="E397" s="31"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="36"/>
       <c r="B398" s="36"/>
       <c r="C398" s="26" t="s">
@@ -7816,7 +7829,7 @@
       </c>
       <c r="E398" s="31"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="36"/>
       <c r="B399" s="36"/>
       <c r="C399" s="26" t="s">
@@ -7847,7 +7860,7 @@
         <v>303.93333333333334</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="36"/>
       <c r="B401" s="36"/>
       <c r="C401" s="26" t="s">
@@ -7859,7 +7872,7 @@
       </c>
       <c r="E401" s="31"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="36"/>
       <c r="B402" s="36"/>
       <c r="C402" s="26" t="s">
@@ -7871,7 +7884,7 @@
       </c>
       <c r="E402" s="31"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="36"/>
       <c r="B403" s="36"/>
       <c r="C403" s="26" t="s">
@@ -7883,7 +7896,7 @@
       </c>
       <c r="E403" s="31"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="36"/>
       <c r="B404" s="36"/>
       <c r="C404" s="26" t="s">
@@ -7895,7 +7908,7 @@
       </c>
       <c r="E404" s="31"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="36"/>
       <c r="B405" s="36"/>
       <c r="C405" s="26" t="s">
@@ -7907,7 +7920,7 @@
       </c>
       <c r="E405" s="31"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="36"/>
       <c r="B406" s="36"/>
       <c r="C406" s="26" t="s">
@@ -7919,7 +7932,7 @@
       </c>
       <c r="E406" s="31"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="36"/>
       <c r="B407" s="36"/>
       <c r="C407" s="26" t="s">
@@ -7950,7 +7963,7 @@
         <v>365.51666666666665</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="36"/>
       <c r="B409" s="36"/>
       <c r="C409" s="26" t="s">
@@ -7962,7 +7975,7 @@
       </c>
       <c r="E409" s="31"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="36"/>
       <c r="B410" s="36"/>
       <c r="C410" s="26" t="s">
@@ -7974,7 +7987,7 @@
       </c>
       <c r="E410" s="31"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="36"/>
       <c r="B411" s="36"/>
       <c r="C411" s="26" t="s">
@@ -7986,7 +7999,7 @@
       </c>
       <c r="E411" s="31"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="36"/>
       <c r="B412" s="36"/>
       <c r="C412" s="26" t="s">
@@ -7998,7 +8011,7 @@
       </c>
       <c r="E412" s="31"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="36"/>
       <c r="B413" s="36"/>
       <c r="C413" s="26" t="s">
@@ -8010,7 +8023,7 @@
       </c>
       <c r="E413" s="31"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="36"/>
       <c r="B414" s="36"/>
       <c r="C414" s="26" t="s">
@@ -8022,7 +8035,7 @@
       </c>
       <c r="E414" s="31"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="36"/>
       <c r="B415" s="36"/>
       <c r="C415" s="26" t="s">
@@ -8053,7 +8066,7 @@
         <v>305.43333333333334</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="36"/>
       <c r="B417" s="36"/>
       <c r="C417" s="26" t="s">
@@ -8065,7 +8078,7 @@
       </c>
       <c r="E417" s="31"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="36"/>
       <c r="B418" s="36"/>
       <c r="C418" s="26" t="s">
@@ -8077,7 +8090,7 @@
       </c>
       <c r="E418" s="31"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="36"/>
       <c r="B419" s="36"/>
       <c r="C419" s="26" t="s">
@@ -8089,7 +8102,7 @@
       </c>
       <c r="E419" s="31"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="36"/>
       <c r="B420" s="36"/>
       <c r="C420" s="26" t="s">
@@ -8101,7 +8114,7 @@
       </c>
       <c r="E420" s="31"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="36"/>
       <c r="B421" s="36"/>
       <c r="C421" s="26" t="s">
@@ -8113,7 +8126,7 @@
       </c>
       <c r="E421" s="31"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="36"/>
       <c r="B422" s="36"/>
       <c r="C422" s="26" t="s">
@@ -8125,7 +8138,7 @@
       </c>
       <c r="E422" s="31"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="36"/>
       <c r="B423" s="36"/>
       <c r="C423" s="26" t="s">
@@ -8156,7 +8169,7 @@
         <v>320.13333333333338</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="36"/>
       <c r="B425" s="36"/>
       <c r="C425" s="26" t="s">
@@ -8168,7 +8181,7 @@
       </c>
       <c r="E425" s="31"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="36"/>
       <c r="B426" s="36"/>
       <c r="C426" s="26" t="s">
@@ -8180,7 +8193,7 @@
       </c>
       <c r="E426" s="31"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="36"/>
       <c r="B427" s="36"/>
       <c r="C427" s="26" t="s">
@@ -8192,7 +8205,7 @@
       </c>
       <c r="E427" s="31"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="36"/>
       <c r="B428" s="36"/>
       <c r="C428" s="26" t="s">
@@ -8204,7 +8217,7 @@
       </c>
       <c r="E428" s="31"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="36"/>
       <c r="B429" s="36"/>
       <c r="C429" s="26" t="s">
@@ -8216,7 +8229,7 @@
       </c>
       <c r="E429" s="31"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="36"/>
       <c r="B430" s="36"/>
       <c r="C430" s="26" t="s">
@@ -8228,7 +8241,7 @@
       </c>
       <c r="E430" s="31"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="36"/>
       <c r="B431" s="36"/>
       <c r="C431" s="26" t="s">
@@ -8259,7 +8272,7 @@
         <v>303.93333333333334</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="36"/>
       <c r="B433" s="36"/>
       <c r="C433" s="26" t="s">
@@ -8271,7 +8284,7 @@
       </c>
       <c r="E433" s="31"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="36"/>
       <c r="B434" s="36"/>
       <c r="C434" s="26" t="s">
@@ -8283,7 +8296,7 @@
       </c>
       <c r="E434" s="31"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="36"/>
       <c r="B435" s="36"/>
       <c r="C435" s="26" t="s">
@@ -8295,7 +8308,7 @@
       </c>
       <c r="E435" s="31"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="36"/>
       <c r="B436" s="36"/>
       <c r="C436" s="26" t="s">
@@ -8307,7 +8320,7 @@
       </c>
       <c r="E436" s="31"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="36"/>
       <c r="B437" s="36"/>
       <c r="C437" s="26" t="s">
@@ -8319,7 +8332,7 @@
       </c>
       <c r="E437" s="31"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="36"/>
       <c r="B438" s="36"/>
       <c r="C438" s="26" t="s">
@@ -8331,7 +8344,7 @@
       </c>
       <c r="E438" s="31"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="36"/>
       <c r="B439" s="36"/>
       <c r="C439" s="26" t="s">
@@ -8362,7 +8375,7 @@
         <v>98.844444444444434</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="36"/>
       <c r="B441" s="36"/>
       <c r="C441" s="26" t="s">
@@ -8374,7 +8387,7 @@
       </c>
       <c r="E441" s="31"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="36"/>
       <c r="B442" s="36"/>
       <c r="C442" s="26" t="s">
@@ -8386,7 +8399,7 @@
       </c>
       <c r="E442" s="31"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="36"/>
       <c r="B443" s="36"/>
       <c r="C443" s="26" t="s">
@@ -8398,7 +8411,7 @@
       </c>
       <c r="E443" s="31"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="36"/>
       <c r="B444" s="36"/>
       <c r="C444" s="26" t="s">
@@ -8410,7 +8423,7 @@
       </c>
       <c r="E444" s="31"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="36"/>
       <c r="B445" s="36"/>
       <c r="C445" s="26" t="s">
@@ -8422,7 +8435,7 @@
       </c>
       <c r="E445" s="31"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="36"/>
       <c r="B446" s="36"/>
       <c r="C446" s="26" t="s">
@@ -8453,7 +8466,7 @@
         <v>106.84444444444443</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="36"/>
       <c r="B448" s="36"/>
       <c r="C448" s="26" t="s">
@@ -8465,7 +8478,7 @@
       </c>
       <c r="E448" s="31"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="36"/>
       <c r="B449" s="36"/>
       <c r="C449" s="26" t="s">
@@ -8477,7 +8490,7 @@
       </c>
       <c r="E449" s="31"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="36"/>
       <c r="B450" s="36"/>
       <c r="C450" s="26" t="s">
@@ -8489,7 +8502,7 @@
       </c>
       <c r="E450" s="31"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="36"/>
       <c r="B451" s="36"/>
       <c r="C451" s="26" t="s">
@@ -8501,7 +8514,7 @@
       </c>
       <c r="E451" s="31"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="36"/>
       <c r="B452" s="36"/>
       <c r="C452" s="26" t="s">
@@ -8513,7 +8526,7 @@
       </c>
       <c r="E452" s="31"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="36"/>
       <c r="B453" s="36"/>
       <c r="C453" s="26" t="s">
@@ -8525,7 +8538,7 @@
       </c>
       <c r="E453" s="31"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="36"/>
       <c r="B454" s="36"/>
       <c r="C454" s="26" t="s">
@@ -8537,7 +8550,7 @@
       </c>
       <c r="E454" s="31"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="36"/>
       <c r="B455" s="36"/>
       <c r="C455" s="26" t="s">
@@ -8568,7 +8581,7 @@
         <v>104.84444444444443</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="36"/>
       <c r="B457" s="36"/>
       <c r="C457" s="26" t="s">
@@ -8580,7 +8593,7 @@
       </c>
       <c r="E457" s="31"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="36"/>
       <c r="B458" s="36"/>
       <c r="C458" s="26" t="s">
@@ -8592,7 +8605,7 @@
       </c>
       <c r="E458" s="31"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="36"/>
       <c r="B459" s="36"/>
       <c r="C459" s="26" t="s">
@@ -8604,7 +8617,7 @@
       </c>
       <c r="E459" s="31"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="36"/>
       <c r="B460" s="36"/>
       <c r="C460" s="26" t="s">
@@ -8616,7 +8629,7 @@
       </c>
       <c r="E460" s="31"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="36"/>
       <c r="B461" s="36"/>
       <c r="C461" s="26" t="s">
@@ -8628,7 +8641,7 @@
       </c>
       <c r="E461" s="31"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="36"/>
       <c r="B462" s="36"/>
       <c r="C462" s="26" t="s">
@@ -8640,7 +8653,7 @@
       </c>
       <c r="E462" s="31"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="36"/>
       <c r="B463" s="36"/>
       <c r="C463" s="26" t="s">
@@ -8652,7 +8665,7 @@
       </c>
       <c r="E463" s="31"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="36"/>
       <c r="B464" s="36"/>
       <c r="C464" s="26" t="s">
@@ -8683,7 +8696,7 @@
         <v>105.84444444444443</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="36"/>
       <c r="B466" s="36"/>
       <c r="C466" s="26" t="s">
@@ -8695,7 +8708,7 @@
       </c>
       <c r="E466" s="31"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="36"/>
       <c r="B467" s="36"/>
       <c r="C467" s="26" t="s">
@@ -8707,7 +8720,7 @@
       </c>
       <c r="E467" s="31"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="36"/>
       <c r="B468" s="36"/>
       <c r="C468" s="26" t="s">
@@ -8719,7 +8732,7 @@
       </c>
       <c r="E468" s="31"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="36"/>
       <c r="B469" s="36"/>
       <c r="C469" s="26" t="s">
@@ -8731,7 +8744,7 @@
       </c>
       <c r="E469" s="31"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="36"/>
       <c r="B470" s="36"/>
       <c r="C470" s="26" t="s">
@@ -8743,7 +8756,7 @@
       </c>
       <c r="E470" s="31"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="36"/>
       <c r="B471" s="36"/>
       <c r="C471" s="26" t="s">
@@ -8755,7 +8768,7 @@
       </c>
       <c r="E471" s="31"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="36"/>
       <c r="B472" s="36"/>
       <c r="C472" s="26" t="s">
@@ -8786,7 +8799,7 @@
         <v>104.84444444444443</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="36"/>
       <c r="B474" s="36"/>
       <c r="C474" s="26" t="s">
@@ -8798,7 +8811,7 @@
       </c>
       <c r="E474" s="31"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="36"/>
       <c r="B475" s="36"/>
       <c r="C475" s="26" t="s">
@@ -8810,7 +8823,7 @@
       </c>
       <c r="E475" s="31"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="36"/>
       <c r="B476" s="36"/>
       <c r="C476" s="26" t="s">
@@ -8822,7 +8835,7 @@
       </c>
       <c r="E476" s="31"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="36"/>
       <c r="B477" s="36"/>
       <c r="C477" s="26" t="s">
@@ -8834,7 +8847,7 @@
       </c>
       <c r="E477" s="31"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="36"/>
       <c r="B478" s="36"/>
       <c r="C478" s="26" t="s">
@@ -8846,7 +8859,7 @@
       </c>
       <c r="E478" s="31"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="36"/>
       <c r="B479" s="36"/>
       <c r="C479" s="26" t="s">
@@ -8858,7 +8871,7 @@
       </c>
       <c r="E479" s="31"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="36"/>
       <c r="B480" s="36"/>
       <c r="C480" s="26" t="s">
@@ -8870,7 +8883,7 @@
       </c>
       <c r="E480" s="31"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="36"/>
       <c r="B481" s="36"/>
       <c r="C481" s="26" t="s">
@@ -8882,3031 +8895,2919 @@
       </c>
       <c r="E481" s="31"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D482" s="34" t="str">
         <f>IFERROR(VLOOKUP(C482,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D483" s="34" t="str">
         <f>IFERROR(VLOOKUP(C483,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D484" s="34" t="str">
         <f>IFERROR(VLOOKUP(C484,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D485" s="34" t="str">
         <f>IFERROR(VLOOKUP(C485,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D486" s="34" t="str">
         <f>IFERROR(VLOOKUP(C486,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D487" s="34" t="str">
         <f>IFERROR(VLOOKUP(C487,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D488" s="34" t="str">
         <f>IFERROR(VLOOKUP(C488,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D489" s="34" t="str">
         <f>IFERROR(VLOOKUP(C489,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D490" s="34" t="str">
         <f>IFERROR(VLOOKUP(C490,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D491" s="34" t="str">
         <f>IFERROR(VLOOKUP(C491,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D492" s="34" t="str">
         <f>IFERROR(VLOOKUP(C492,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D493" s="34" t="str">
         <f>IFERROR(VLOOKUP(C493,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D494" s="34" t="str">
         <f>IFERROR(VLOOKUP(C494,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D495" s="34" t="str">
         <f>IFERROR(VLOOKUP(C495,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D496" s="34" t="str">
         <f>IFERROR(VLOOKUP(C496,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D497" s="34" t="str">
         <f>IFERROR(VLOOKUP(C497,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D498" s="34" t="str">
         <f>IFERROR(VLOOKUP(C498,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D499" s="34" t="str">
         <f>IFERROR(VLOOKUP(C499,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D500" s="34" t="str">
         <f>IFERROR(VLOOKUP(C500,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D501" s="34" t="str">
         <f>IFERROR(VLOOKUP(C501,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D502" s="34" t="str">
         <f>IFERROR(VLOOKUP(C502,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D503" s="34" t="str">
         <f>IFERROR(VLOOKUP(C503,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D504" s="34" t="str">
         <f>IFERROR(VLOOKUP(C504,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D505" s="34" t="str">
         <f>IFERROR(VLOOKUP(C505,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D506" s="34" t="str">
         <f>IFERROR(VLOOKUP(C506,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D507" s="34" t="str">
         <f>IFERROR(VLOOKUP(C507,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D508" s="34" t="str">
         <f>IFERROR(VLOOKUP(C508,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D509" s="34" t="str">
         <f>IFERROR(VLOOKUP(C509,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D510" s="34" t="str">
         <f>IFERROR(VLOOKUP(C510,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D511" s="34" t="str">
         <f>IFERROR(VLOOKUP(C511,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D512" s="34" t="str">
         <f>IFERROR(VLOOKUP(C512,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D513" s="34" t="str">
         <f>IFERROR(VLOOKUP(C513,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D514" s="34" t="str">
         <f>IFERROR(VLOOKUP(C514,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D515" s="34" t="str">
         <f>IFERROR(VLOOKUP(C515,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D516" s="34" t="str">
         <f>IFERROR(VLOOKUP(C516,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D517" s="34" t="str">
         <f>IFERROR(VLOOKUP(C517,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D518" s="34" t="str">
         <f>IFERROR(VLOOKUP(C518,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D519" s="34" t="str">
         <f>IFERROR(VLOOKUP(C519,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D520" s="34" t="str">
         <f>IFERROR(VLOOKUP(C520,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D521" s="34" t="str">
         <f>IFERROR(VLOOKUP(C521,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D522" s="34" t="str">
         <f>IFERROR(VLOOKUP(C522,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D523" s="34" t="str">
         <f>IFERROR(VLOOKUP(C523,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D524" s="34" t="str">
         <f>IFERROR(VLOOKUP(C524,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D525" s="34" t="str">
         <f>IFERROR(VLOOKUP(C525,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D526" s="34" t="str">
         <f>IFERROR(VLOOKUP(C526,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D527" s="34" t="str">
         <f>IFERROR(VLOOKUP(C527,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D528" s="34" t="str">
         <f>IFERROR(VLOOKUP(C528,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D529" s="34" t="str">
         <f>IFERROR(VLOOKUP(C529,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D530" s="34" t="str">
         <f>IFERROR(VLOOKUP(C530,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D531" s="34" t="str">
         <f>IFERROR(VLOOKUP(C531,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D532" s="34" t="str">
         <f>IFERROR(VLOOKUP(C532,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D533" s="34" t="str">
         <f>IFERROR(VLOOKUP(C533,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D534" s="34" t="str">
         <f>IFERROR(VLOOKUP(C534,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D535" s="34" t="str">
         <f>IFERROR(VLOOKUP(C535,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D536" s="34" t="str">
         <f>IFERROR(VLOOKUP(C536,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D537" s="34" t="str">
         <f>IFERROR(VLOOKUP(C537,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D538" s="34" t="str">
         <f>IFERROR(VLOOKUP(C538,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D539" s="34" t="str">
         <f>IFERROR(VLOOKUP(C539,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D540" s="34" t="str">
         <f>IFERROR(VLOOKUP(C540,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D541" s="34" t="str">
         <f>IFERROR(VLOOKUP(C541,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D542" s="34" t="str">
         <f>IFERROR(VLOOKUP(C542,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D543" s="34" t="str">
         <f>IFERROR(VLOOKUP(C543,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D544" s="34" t="str">
         <f>IFERROR(VLOOKUP(C544,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D545" s="34" t="str">
         <f>IFERROR(VLOOKUP(C545,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D546" s="34" t="str">
         <f>IFERROR(VLOOKUP(C546,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D547" s="34" t="str">
         <f>IFERROR(VLOOKUP(C547,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D548" s="34" t="str">
         <f>IFERROR(VLOOKUP(C548,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D549" s="34" t="str">
         <f>IFERROR(VLOOKUP(C549,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D550" s="34" t="str">
         <f>IFERROR(VLOOKUP(C550,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D551" s="34" t="str">
         <f>IFERROR(VLOOKUP(C551,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D552" s="34" t="str">
         <f>IFERROR(VLOOKUP(C552,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D553" s="34" t="str">
         <f>IFERROR(VLOOKUP(C553,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D554" s="34" t="str">
         <f>IFERROR(VLOOKUP(C554,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D555" s="34" t="str">
         <f>IFERROR(VLOOKUP(C555,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D556" s="34" t="str">
         <f>IFERROR(VLOOKUP(C556,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D557" s="34" t="str">
         <f>IFERROR(VLOOKUP(C557,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D558" s="34" t="str">
         <f>IFERROR(VLOOKUP(C558,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D559" s="34" t="str">
         <f>IFERROR(VLOOKUP(C559,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D560" s="34" t="str">
         <f>IFERROR(VLOOKUP(C560,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D561" s="34" t="str">
         <f>IFERROR(VLOOKUP(C561,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D562" s="34" t="str">
         <f>IFERROR(VLOOKUP(C562,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D563" s="34" t="str">
         <f>IFERROR(VLOOKUP(C563,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D564" s="34" t="str">
         <f>IFERROR(VLOOKUP(C564,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D565" s="34" t="str">
         <f>IFERROR(VLOOKUP(C565,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D566" s="34" t="str">
         <f>IFERROR(VLOOKUP(C566,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D567" s="34" t="str">
         <f>IFERROR(VLOOKUP(C567,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D568" s="34" t="str">
         <f>IFERROR(VLOOKUP(C568,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D569" s="34" t="str">
         <f>IFERROR(VLOOKUP(C569,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D570" s="34" t="str">
         <f>IFERROR(VLOOKUP(C570,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D571" s="34" t="str">
         <f>IFERROR(VLOOKUP(C571,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D572" s="34" t="str">
         <f>IFERROR(VLOOKUP(C572,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D573" s="34" t="str">
         <f>IFERROR(VLOOKUP(C573,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D574" s="34" t="str">
         <f>IFERROR(VLOOKUP(C574,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D575" s="34" t="str">
         <f>IFERROR(VLOOKUP(C575,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D576" s="34" t="str">
         <f>IFERROR(VLOOKUP(C576,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D577" s="34" t="str">
         <f>IFERROR(VLOOKUP(C577,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D578" s="34" t="str">
         <f>IFERROR(VLOOKUP(C578,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D579" s="34" t="str">
         <f>IFERROR(VLOOKUP(C579,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D580" s="34" t="str">
         <f>IFERROR(VLOOKUP(C580,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D581" s="34" t="str">
         <f>IFERROR(VLOOKUP(C581,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D582" s="34" t="str">
         <f>IFERROR(VLOOKUP(C582,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D583" s="34" t="str">
         <f>IFERROR(VLOOKUP(C583,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D584" s="34" t="str">
         <f>IFERROR(VLOOKUP(C584,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D585" s="34" t="str">
         <f>IFERROR(VLOOKUP(C585,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D586" s="34" t="str">
         <f>IFERROR(VLOOKUP(C586,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D587" s="34" t="str">
         <f>IFERROR(VLOOKUP(C587,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D588" s="34" t="str">
         <f>IFERROR(VLOOKUP(C588,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D589" s="34" t="str">
         <f>IFERROR(VLOOKUP(C589,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D590" s="34" t="str">
         <f>IFERROR(VLOOKUP(C590,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D591" s="34" t="str">
         <f>IFERROR(VLOOKUP(C591,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D592" s="34" t="str">
         <f>IFERROR(VLOOKUP(C592,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D593" s="34" t="str">
         <f>IFERROR(VLOOKUP(C593,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D594" s="34" t="str">
         <f>IFERROR(VLOOKUP(C594,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D595" s="34" t="str">
         <f>IFERROR(VLOOKUP(C595,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D596" s="34" t="str">
         <f>IFERROR(VLOOKUP(C596,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D597" s="34" t="str">
         <f>IFERROR(VLOOKUP(C597,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D598" s="34" t="str">
         <f>IFERROR(VLOOKUP(C598,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D599" s="34" t="str">
         <f>IFERROR(VLOOKUP(C599,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D600" s="34" t="str">
         <f>IFERROR(VLOOKUP(C600,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D601" s="34" t="str">
         <f>IFERROR(VLOOKUP(C601,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D602" s="34" t="str">
         <f>IFERROR(VLOOKUP(C602,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="603" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D603" s="34" t="str">
         <f>IFERROR(VLOOKUP(C603,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="604" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D604" s="34" t="str">
         <f>IFERROR(VLOOKUP(C604,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="605" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D605" s="34" t="str">
         <f>IFERROR(VLOOKUP(C605,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="606" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D606" s="34" t="str">
         <f>IFERROR(VLOOKUP(C606,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="607" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D607" s="34" t="str">
         <f>IFERROR(VLOOKUP(C607,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="608" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D608" s="34" t="str">
         <f>IFERROR(VLOOKUP(C608,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="609" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D609" s="34" t="str">
         <f>IFERROR(VLOOKUP(C609,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="610" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D610" s="34" t="str">
         <f>IFERROR(VLOOKUP(C610,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="611" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D611" s="34" t="str">
         <f>IFERROR(VLOOKUP(C611,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="612" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D612" s="34" t="str">
         <f>IFERROR(VLOOKUP(C612,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="613" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D613" s="34" t="str">
         <f>IFERROR(VLOOKUP(C613,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="614" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D614" s="34" t="str">
         <f>IFERROR(VLOOKUP(C614,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="615" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D615" s="34" t="str">
         <f>IFERROR(VLOOKUP(C615,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="616" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D616" s="34" t="str">
         <f>IFERROR(VLOOKUP(C616,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="617" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D617" s="34" t="str">
         <f>IFERROR(VLOOKUP(C617,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="618" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D618" s="34" t="str">
         <f>IFERROR(VLOOKUP(C618,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="619" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D619" s="34" t="str">
         <f>IFERROR(VLOOKUP(C619,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="620" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D620" s="34" t="str">
         <f>IFERROR(VLOOKUP(C620,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="621" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D621" s="34" t="str">
         <f>IFERROR(VLOOKUP(C621,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="622" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D622" s="34" t="str">
         <f>IFERROR(VLOOKUP(C622,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="623" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D623" s="34" t="str">
         <f>IFERROR(VLOOKUP(C623,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="624" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D624" s="34" t="str">
         <f>IFERROR(VLOOKUP(C624,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="625" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D625" s="34" t="str">
         <f>IFERROR(VLOOKUP(C625,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="626" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D626" s="34" t="str">
         <f>IFERROR(VLOOKUP(C626,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="627" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D627" s="34" t="str">
         <f>IFERROR(VLOOKUP(C627,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="628" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D628" s="34" t="str">
         <f>IFERROR(VLOOKUP(C628,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="629" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D629" s="34" t="str">
         <f>IFERROR(VLOOKUP(C629,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="630" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D630" s="34" t="str">
         <f>IFERROR(VLOOKUP(C630,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="631" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D631" s="34" t="str">
         <f>IFERROR(VLOOKUP(C631,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="632" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D632" s="34" t="str">
         <f>IFERROR(VLOOKUP(C632,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="633" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D633" s="34" t="str">
         <f>IFERROR(VLOOKUP(C633,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="634" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D634" s="34" t="str">
         <f>IFERROR(VLOOKUP(C634,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="635" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D635" s="34" t="str">
         <f>IFERROR(VLOOKUP(C635,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="636" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D636" s="34" t="str">
         <f>IFERROR(VLOOKUP(C636,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="637" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D637" s="34" t="str">
         <f>IFERROR(VLOOKUP(C637,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="638" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D638" s="34" t="str">
         <f>IFERROR(VLOOKUP(C638,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="639" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D639" s="34" t="str">
         <f>IFERROR(VLOOKUP(C639,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="640" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D640" s="34" t="str">
         <f>IFERROR(VLOOKUP(C640,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="641" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D641" s="34" t="str">
         <f>IFERROR(VLOOKUP(C641,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="642" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D642" s="34" t="str">
         <f>IFERROR(VLOOKUP(C642,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="643" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D643" s="34" t="str">
         <f>IFERROR(VLOOKUP(C643,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="644" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D644" s="34" t="str">
         <f>IFERROR(VLOOKUP(C644,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="645" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D645" s="34" t="str">
         <f>IFERROR(VLOOKUP(C645,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="646" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D646" s="34" t="str">
         <f>IFERROR(VLOOKUP(C646,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="647" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D647" s="34" t="str">
         <f>IFERROR(VLOOKUP(C647,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="648" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D648" s="34" t="str">
         <f>IFERROR(VLOOKUP(C648,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="649" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D649" s="34" t="str">
         <f>IFERROR(VLOOKUP(C649,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="650" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D650" s="34" t="str">
         <f>IFERROR(VLOOKUP(C650,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="651" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D651" s="34" t="str">
         <f>IFERROR(VLOOKUP(C651,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="652" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D652" s="34" t="str">
         <f>IFERROR(VLOOKUP(C652,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="653" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D653" s="34" t="str">
         <f>IFERROR(VLOOKUP(C653,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="654" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D654" s="34" t="str">
         <f>IFERROR(VLOOKUP(C654,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="655" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D655" s="34" t="str">
         <f>IFERROR(VLOOKUP(C655,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="656" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D656" s="34" t="str">
         <f>IFERROR(VLOOKUP(C656,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="657" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D657" s="34" t="str">
         <f>IFERROR(VLOOKUP(C657,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="658" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D658" s="34" t="str">
         <f>IFERROR(VLOOKUP(C658,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="659" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D659" s="34" t="str">
         <f>IFERROR(VLOOKUP(C659,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="660" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D660" s="34" t="str">
         <f>IFERROR(VLOOKUP(C660,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="661" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D661" s="34" t="str">
         <f>IFERROR(VLOOKUP(C661,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="662" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D662" s="34" t="str">
         <f>IFERROR(VLOOKUP(C662,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="663" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D663" s="34" t="str">
         <f>IFERROR(VLOOKUP(C663,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="664" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D664" s="34" t="str">
         <f>IFERROR(VLOOKUP(C664,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="665" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D665" s="34" t="str">
         <f>IFERROR(VLOOKUP(C665,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="666" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D666" s="34" t="str">
         <f>IFERROR(VLOOKUP(C666,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="667" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D667" s="34" t="str">
         <f>IFERROR(VLOOKUP(C667,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="668" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D668" s="34" t="str">
         <f>IFERROR(VLOOKUP(C668,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="669" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D669" s="34" t="str">
         <f>IFERROR(VLOOKUP(C669,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="670" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D670" s="34" t="str">
         <f>IFERROR(VLOOKUP(C670,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="671" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D671" s="34" t="str">
         <f>IFERROR(VLOOKUP(C671,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="672" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D672" s="34" t="str">
         <f>IFERROR(VLOOKUP(C672,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="673" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D673" s="34" t="str">
         <f>IFERROR(VLOOKUP(C673,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="674" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D674" s="34" t="str">
         <f>IFERROR(VLOOKUP(C674,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="675" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D675" s="34" t="str">
         <f>IFERROR(VLOOKUP(C675,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="676" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D676" s="34" t="str">
         <f>IFERROR(VLOOKUP(C676,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="677" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D677" s="34" t="str">
         <f>IFERROR(VLOOKUP(C677,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="678" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D678" s="34" t="str">
         <f>IFERROR(VLOOKUP(C678,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="679" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D679" s="34" t="str">
         <f>IFERROR(VLOOKUP(C679,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="680" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D680" s="34" t="str">
         <f>IFERROR(VLOOKUP(C680,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="681" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D681" s="34" t="str">
         <f>IFERROR(VLOOKUP(C681,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="682" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D682" s="34" t="str">
         <f>IFERROR(VLOOKUP(C682,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="683" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D683" s="34" t="str">
         <f>IFERROR(VLOOKUP(C683,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="684" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D684" s="34" t="str">
         <f>IFERROR(VLOOKUP(C684,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="685" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D685" s="34" t="str">
         <f>IFERROR(VLOOKUP(C685,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="686" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D686" s="34" t="str">
         <f>IFERROR(VLOOKUP(C686,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="687" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D687" s="34" t="str">
         <f>IFERROR(VLOOKUP(C687,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="688" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D688" s="34" t="str">
         <f>IFERROR(VLOOKUP(C688,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="689" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D689" s="34" t="str">
         <f>IFERROR(VLOOKUP(C689,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="690" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D690" s="34" t="str">
         <f>IFERROR(VLOOKUP(C690,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="691" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D691" s="34" t="str">
         <f>IFERROR(VLOOKUP(C691,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="692" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D692" s="34" t="str">
         <f>IFERROR(VLOOKUP(C692,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="693" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D693" s="34" t="str">
         <f>IFERROR(VLOOKUP(C693,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="694" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D694" s="34" t="str">
         <f>IFERROR(VLOOKUP(C694,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="695" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D695" s="34" t="str">
         <f>IFERROR(VLOOKUP(C695,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="696" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D696" s="34" t="str">
         <f>IFERROR(VLOOKUP(C696,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="697" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D697" s="34" t="str">
         <f>IFERROR(VLOOKUP(C697,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="698" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D698" s="34" t="str">
         <f>IFERROR(VLOOKUP(C698,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="699" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D699" s="34" t="str">
         <f>IFERROR(VLOOKUP(C699,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="700" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D700" s="34" t="str">
         <f>IFERROR(VLOOKUP(C700,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="701" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D701" s="34" t="str">
         <f>IFERROR(VLOOKUP(C701,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="702" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D702" s="34" t="str">
         <f>IFERROR(VLOOKUP(C702,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="703" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D703" s="34" t="str">
         <f>IFERROR(VLOOKUP(C703,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="704" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D704" s="34" t="str">
         <f>IFERROR(VLOOKUP(C704,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="705" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D705" s="34" t="str">
         <f>IFERROR(VLOOKUP(C705,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="706" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D706" s="34" t="str">
         <f>IFERROR(VLOOKUP(C706,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="707" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D707" s="34" t="str">
         <f>IFERROR(VLOOKUP(C707,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="708" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D708" s="34" t="str">
         <f>IFERROR(VLOOKUP(C708,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="709" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D709" s="34" t="str">
         <f>IFERROR(VLOOKUP(C709,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="710" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D710" s="34" t="str">
         <f>IFERROR(VLOOKUP(C710,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="711" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D711" s="34" t="str">
         <f>IFERROR(VLOOKUP(C711,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="712" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D712" s="34" t="str">
         <f>IFERROR(VLOOKUP(C712,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="713" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D713" s="34" t="str">
         <f>IFERROR(VLOOKUP(C713,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="714" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D714" s="34" t="str">
         <f>IFERROR(VLOOKUP(C714,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="715" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D715" s="34" t="str">
         <f>IFERROR(VLOOKUP(C715,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="716" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D716" s="34" t="str">
         <f>IFERROR(VLOOKUP(C716,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="717" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D717" s="34" t="str">
         <f>IFERROR(VLOOKUP(C717,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="718" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D718" s="34" t="str">
         <f>IFERROR(VLOOKUP(C718,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="719" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D719" s="34" t="str">
         <f>IFERROR(VLOOKUP(C719,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="720" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D720" s="34" t="str">
         <f>IFERROR(VLOOKUP(C720,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="721" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="721" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D721" s="34" t="str">
         <f>IFERROR(VLOOKUP(C721,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="722" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="722" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D722" s="34" t="str">
         <f>IFERROR(VLOOKUP(C722,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="723" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="723" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D723" s="34" t="str">
         <f>IFERROR(VLOOKUP(C723,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="724" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="724" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D724" s="34" t="str">
         <f>IFERROR(VLOOKUP(C724,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="725" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="725" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D725" s="34" t="str">
         <f>IFERROR(VLOOKUP(C725,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="726" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="726" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D726" s="34" t="str">
         <f>IFERROR(VLOOKUP(C726,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="727" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D727" s="34" t="str">
         <f>IFERROR(VLOOKUP(C727,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="728" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="728" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D728" s="34" t="str">
         <f>IFERROR(VLOOKUP(C728,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="729" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D729" s="34" t="str">
         <f>IFERROR(VLOOKUP(C729,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="730" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D730" s="34" t="str">
         <f>IFERROR(VLOOKUP(C730,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="731" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D731" s="34" t="str">
         <f>IFERROR(VLOOKUP(C731,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="732" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D732" s="34" t="str">
         <f>IFERROR(VLOOKUP(C732,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="733" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D733" s="34" t="str">
         <f>IFERROR(VLOOKUP(C733,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="734" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D734" s="34" t="str">
         <f>IFERROR(VLOOKUP(C734,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="735" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D735" s="34" t="str">
         <f>IFERROR(VLOOKUP(C735,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="736" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D736" s="34" t="str">
         <f>IFERROR(VLOOKUP(C736,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="737" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D737" s="34" t="str">
         <f>IFERROR(VLOOKUP(C737,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="738" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D738" s="34" t="str">
         <f>IFERROR(VLOOKUP(C738,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="739" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D739" s="34" t="str">
         <f>IFERROR(VLOOKUP(C739,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="740" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D740" s="34" t="str">
         <f>IFERROR(VLOOKUP(C740,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="741" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D741" s="34" t="str">
         <f>IFERROR(VLOOKUP(C741,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="742" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D742" s="34" t="str">
         <f>IFERROR(VLOOKUP(C742,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="743" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="743" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D743" s="34" t="str">
         <f>IFERROR(VLOOKUP(C743,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="744" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D744" s="34" t="str">
         <f>IFERROR(VLOOKUP(C744,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="745" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="745" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D745" s="34" t="str">
         <f>IFERROR(VLOOKUP(C745,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="746" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D746" s="34" t="str">
         <f>IFERROR(VLOOKUP(C746,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="747" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D747" s="34" t="str">
         <f>IFERROR(VLOOKUP(C747,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="748" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D748" s="34" t="str">
         <f>IFERROR(VLOOKUP(C748,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="749" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D749" s="34" t="str">
         <f>IFERROR(VLOOKUP(C749,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="750" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="750" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D750" s="34" t="str">
         <f>IFERROR(VLOOKUP(C750,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="751" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="751" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D751" s="34" t="str">
         <f>IFERROR(VLOOKUP(C751,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="752" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="752" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D752" s="34" t="str">
         <f>IFERROR(VLOOKUP(C752,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="753" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="753" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D753" s="34" t="str">
         <f>IFERROR(VLOOKUP(C753,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="754" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="754" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D754" s="34" t="str">
         <f>IFERROR(VLOOKUP(C754,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="755" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="755" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D755" s="34" t="str">
         <f>IFERROR(VLOOKUP(C755,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="756" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="756" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D756" s="34" t="str">
         <f>IFERROR(VLOOKUP(C756,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="757" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="757" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D757" s="34" t="str">
         <f>IFERROR(VLOOKUP(C757,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="758" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="758" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D758" s="34" t="str">
         <f>IFERROR(VLOOKUP(C758,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="759" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="759" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D759" s="34" t="str">
         <f>IFERROR(VLOOKUP(C759,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="760" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="760" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D760" s="34" t="str">
         <f>IFERROR(VLOOKUP(C760,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="761" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="761" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D761" s="34" t="str">
         <f>IFERROR(VLOOKUP(C761,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="762" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="762" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D762" s="34" t="str">
         <f>IFERROR(VLOOKUP(C762,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="763" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="763" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D763" s="34" t="str">
         <f>IFERROR(VLOOKUP(C763,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="764" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="764" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D764" s="34" t="str">
         <f>IFERROR(VLOOKUP(C764,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="765" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="765" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D765" s="34" t="str">
         <f>IFERROR(VLOOKUP(C765,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="766" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="766" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D766" s="34" t="str">
         <f>IFERROR(VLOOKUP(C766,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="767" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D767" s="34" t="str">
         <f>IFERROR(VLOOKUP(C767,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="768" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D768" s="34" t="str">
         <f>IFERROR(VLOOKUP(C768,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="769" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="769" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D769" s="34" t="str">
         <f>IFERROR(VLOOKUP(C769,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="770" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="770" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D770" s="34" t="str">
         <f>IFERROR(VLOOKUP(C770,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="771" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="771" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D771" s="34" t="str">
         <f>IFERROR(VLOOKUP(C771,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="772" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="772" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D772" s="34" t="str">
         <f>IFERROR(VLOOKUP(C772,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="773" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="773" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D773" s="34" t="str">
         <f>IFERROR(VLOOKUP(C773,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="774" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="774" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D774" s="34" t="str">
         <f>IFERROR(VLOOKUP(C774,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="775" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="775" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D775" s="34" t="str">
         <f>IFERROR(VLOOKUP(C775,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="776" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="776" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D776" s="34" t="str">
         <f>IFERROR(VLOOKUP(C776,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="777" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="777" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D777" s="34" t="str">
         <f>IFERROR(VLOOKUP(C777,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="778" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="778" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D778" s="34" t="str">
         <f>IFERROR(VLOOKUP(C778,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="779" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="779" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D779" s="34" t="str">
         <f>IFERROR(VLOOKUP(C779,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="780" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="780" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D780" s="34" t="str">
         <f>IFERROR(VLOOKUP(C780,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="781" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="781" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D781" s="34" t="str">
         <f>IFERROR(VLOOKUP(C781,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="782" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="782" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D782" s="34" t="str">
         <f>IFERROR(VLOOKUP(C782,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="783" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="783" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D783" s="34" t="str">
         <f>IFERROR(VLOOKUP(C783,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="784" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="784" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D784" s="34" t="str">
         <f>IFERROR(VLOOKUP(C784,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="785" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="785" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D785" s="34" t="str">
         <f>IFERROR(VLOOKUP(C785,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="786" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="786" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D786" s="34" t="str">
         <f>IFERROR(VLOOKUP(C786,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="787" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="787" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D787" s="34" t="str">
         <f>IFERROR(VLOOKUP(C787,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="788" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="788" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D788" s="34" t="str">
         <f>IFERROR(VLOOKUP(C788,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="789" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="789" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D789" s="34" t="str">
         <f>IFERROR(VLOOKUP(C789,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="790" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="790" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D790" s="34" t="str">
         <f>IFERROR(VLOOKUP(C790,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="791" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="791" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D791" s="34" t="str">
         <f>IFERROR(VLOOKUP(C791,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="792" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="792" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D792" s="34" t="str">
         <f>IFERROR(VLOOKUP(C792,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="793" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="793" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D793" s="34" t="str">
         <f>IFERROR(VLOOKUP(C793,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="794" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="794" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D794" s="34" t="str">
         <f>IFERROR(VLOOKUP(C794,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="795" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="795" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D795" s="34" t="str">
         <f>IFERROR(VLOOKUP(C795,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="796" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="796" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D796" s="34" t="str">
         <f>IFERROR(VLOOKUP(C796,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="797" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="797" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D797" s="34" t="str">
         <f>IFERROR(VLOOKUP(C797,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="798" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="798" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D798" s="34" t="str">
         <f>IFERROR(VLOOKUP(C798,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="799" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="799" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D799" s="34" t="str">
         <f>IFERROR(VLOOKUP(C799,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="800" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="800" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D800" s="34" t="str">
         <f>IFERROR(VLOOKUP(C800,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="801" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="801" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D801" s="34" t="str">
         <f>IFERROR(VLOOKUP(C801,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="802" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="802" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D802" s="34" t="str">
         <f>IFERROR(VLOOKUP(C802,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="803" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="803" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D803" s="34" t="str">
         <f>IFERROR(VLOOKUP(C803,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="804" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="804" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D804" s="34" t="str">
         <f>IFERROR(VLOOKUP(C804,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="805" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="805" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D805" s="34" t="str">
         <f>IFERROR(VLOOKUP(C805,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="806" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="806" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D806" s="34" t="str">
         <f>IFERROR(VLOOKUP(C806,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="807" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="807" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D807" s="34" t="str">
         <f>IFERROR(VLOOKUP(C807,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="808" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="808" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D808" s="34" t="str">
         <f>IFERROR(VLOOKUP(C808,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="809" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="809" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D809" s="34" t="str">
         <f>IFERROR(VLOOKUP(C809,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="810" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="810" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D810" s="34" t="str">
         <f>IFERROR(VLOOKUP(C810,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="811" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="811" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D811" s="34" t="str">
         <f>IFERROR(VLOOKUP(C811,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="812" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="812" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D812" s="34" t="str">
         <f>IFERROR(VLOOKUP(C812,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="813" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="813" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D813" s="34" t="str">
         <f>IFERROR(VLOOKUP(C813,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="814" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="814" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D814" s="34" t="str">
         <f>IFERROR(VLOOKUP(C814,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="815" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="815" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D815" s="34" t="str">
         <f>IFERROR(VLOOKUP(C815,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="816" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="816" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D816" s="34" t="str">
         <f>IFERROR(VLOOKUP(C816,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="817" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="817" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D817" s="34" t="str">
         <f>IFERROR(VLOOKUP(C817,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="818" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="818" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D818" s="34" t="str">
         <f>IFERROR(VLOOKUP(C818,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="819" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="819" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D819" s="34" t="str">
         <f>IFERROR(VLOOKUP(C819,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="820" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="820" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D820" s="34" t="str">
         <f>IFERROR(VLOOKUP(C820,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="821" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="821" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D821" s="34" t="str">
         <f>IFERROR(VLOOKUP(C821,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="822" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="822" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D822" s="34" t="str">
         <f>IFERROR(VLOOKUP(C822,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="823" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="823" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D823" s="34" t="str">
         <f>IFERROR(VLOOKUP(C823,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="824" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="824" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D824" s="34" t="str">
         <f>IFERROR(VLOOKUP(C824,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="825" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="825" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D825" s="34" t="str">
         <f>IFERROR(VLOOKUP(C825,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="826" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="826" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D826" s="34" t="str">
         <f>IFERROR(VLOOKUP(C826,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="827" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="827" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D827" s="34" t="str">
         <f>IFERROR(VLOOKUP(C827,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="828" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="828" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D828" s="34" t="str">
         <f>IFERROR(VLOOKUP(C828,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="829" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="829" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D829" s="34" t="str">
         <f>IFERROR(VLOOKUP(C829,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="830" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="830" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D830" s="34" t="str">
         <f>IFERROR(VLOOKUP(C830,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="831" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="831" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D831" s="34" t="str">
         <f>IFERROR(VLOOKUP(C831,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="832" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="832" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D832" s="34" t="str">
         <f>IFERROR(VLOOKUP(C832,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="833" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="833" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D833" s="34" t="str">
         <f>IFERROR(VLOOKUP(C833,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="834" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="834" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D834" s="34" t="str">
         <f>IFERROR(VLOOKUP(C834,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="835" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="835" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D835" s="34" t="str">
         <f>IFERROR(VLOOKUP(C835,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="836" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="836" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D836" s="34" t="str">
         <f>IFERROR(VLOOKUP(C836,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="837" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="837" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D837" s="34" t="str">
         <f>IFERROR(VLOOKUP(C837,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="838" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="838" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D838" s="34" t="str">
         <f>IFERROR(VLOOKUP(C838,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="839" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="839" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D839" s="34" t="str">
         <f>IFERROR(VLOOKUP(C839,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="840" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="840" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D840" s="34" t="str">
         <f>IFERROR(VLOOKUP(C840,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="841" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="841" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D841" s="34" t="str">
         <f>IFERROR(VLOOKUP(C841,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="842" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="842" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D842" s="34" t="str">
         <f>IFERROR(VLOOKUP(C842,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="843" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="843" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D843" s="34" t="str">
         <f>IFERROR(VLOOKUP(C843,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="844" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="844" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D844" s="34" t="str">
         <f>IFERROR(VLOOKUP(C844,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="845" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="845" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D845" s="34" t="str">
         <f>IFERROR(VLOOKUP(C845,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="846" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="846" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D846" s="34" t="str">
         <f>IFERROR(VLOOKUP(C846,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="847" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="847" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D847" s="34" t="str">
         <f>IFERROR(VLOOKUP(C847,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="848" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="848" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D848" s="34" t="str">
         <f>IFERROR(VLOOKUP(C848,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="849" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="849" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D849" s="34" t="str">
         <f>IFERROR(VLOOKUP(C849,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="850" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="850" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D850" s="34" t="str">
         <f>IFERROR(VLOOKUP(C850,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="851" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="851" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D851" s="34" t="str">
         <f>IFERROR(VLOOKUP(C851,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="852" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="852" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D852" s="34" t="str">
         <f>IFERROR(VLOOKUP(C852,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="853" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="853" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D853" s="34" t="str">
         <f>IFERROR(VLOOKUP(C853,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="854" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="854" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D854" s="34" t="str">
         <f>IFERROR(VLOOKUP(C854,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="855" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="855" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D855" s="34" t="str">
         <f>IFERROR(VLOOKUP(C855,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="856" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="856" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D856" s="34" t="str">
         <f>IFERROR(VLOOKUP(C856,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="857" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="857" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D857" s="34" t="str">
         <f>IFERROR(VLOOKUP(C857,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="858" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="858" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D858" s="34" t="str">
         <f>IFERROR(VLOOKUP(C858,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="859" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="859" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D859" s="34" t="str">
         <f>IFERROR(VLOOKUP(C859,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="860" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="860" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D860" s="34" t="str">
         <f>IFERROR(VLOOKUP(C860,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="861" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="861" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D861" s="34" t="str">
         <f>IFERROR(VLOOKUP(C861,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="862" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="862" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D862" s="34" t="str">
         <f>IFERROR(VLOOKUP(C862,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="863" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="863" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D863" s="34" t="str">
         <f>IFERROR(VLOOKUP(C863,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="864" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="864" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D864" s="34" t="str">
         <f>IFERROR(VLOOKUP(C864,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="865" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="865" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D865" s="34" t="str">
         <f>IFERROR(VLOOKUP(C865,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="866" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="866" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D866" s="34" t="str">
         <f>IFERROR(VLOOKUP(C866,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="867" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="867" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D867" s="34" t="str">
         <f>IFERROR(VLOOKUP(C867,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="868" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="868" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D868" s="34" t="str">
         <f>IFERROR(VLOOKUP(C868,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="869" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="869" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D869" s="34" t="str">
         <f>IFERROR(VLOOKUP(C869,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="870" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="870" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D870" s="34" t="str">
         <f>IFERROR(VLOOKUP(C870,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="871" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="871" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D871" s="34" t="str">
         <f>IFERROR(VLOOKUP(C871,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="872" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="872" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D872" s="34" t="str">
         <f>IFERROR(VLOOKUP(C872,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="873" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="873" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D873" s="34" t="str">
         <f>IFERROR(VLOOKUP(C873,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="874" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="874" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D874" s="34" t="str">
         <f>IFERROR(VLOOKUP(C874,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="875" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="875" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D875" s="34" t="str">
         <f>IFERROR(VLOOKUP(C875,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="876" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="876" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D876" s="34" t="str">
         <f>IFERROR(VLOOKUP(C876,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="877" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="877" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D877" s="34" t="str">
         <f>IFERROR(VLOOKUP(C877,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="878" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="878" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D878" s="34" t="str">
         <f>IFERROR(VLOOKUP(C878,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="879" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="879" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D879" s="34" t="str">
         <f>IFERROR(VLOOKUP(C879,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="880" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="880" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D880" s="34" t="str">
         <f>IFERROR(VLOOKUP(C880,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="881" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="881" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D881" s="34" t="str">
         <f>IFERROR(VLOOKUP(C881,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="882" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="882" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D882" s="34" t="str">
         <f>IFERROR(VLOOKUP(C882,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
-    <row r="883" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="883" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D883" s="34" t="str">
         <f>IFERROR(VLOOKUP(C883,'[1]BURGERATOR ÜRÜN İÇERİK'!$A$1:$D$42,4,),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="118">
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A75:A82"/>
-    <mergeCell ref="B75:B82"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="A124:A131"/>
-    <mergeCell ref="B124:B131"/>
-    <mergeCell ref="A132:A139"/>
-    <mergeCell ref="B132:B139"/>
-    <mergeCell ref="A140:A147"/>
-    <mergeCell ref="B140:B147"/>
-    <mergeCell ref="A100:A107"/>
-    <mergeCell ref="B100:B107"/>
-    <mergeCell ref="A108:A115"/>
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="A116:A123"/>
-    <mergeCell ref="B116:B123"/>
-    <mergeCell ref="A173:A180"/>
-    <mergeCell ref="B173:B180"/>
-    <mergeCell ref="A181:A188"/>
-    <mergeCell ref="B181:B188"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="B189:B196"/>
-    <mergeCell ref="A148:A155"/>
-    <mergeCell ref="B148:B155"/>
-    <mergeCell ref="A156:A164"/>
-    <mergeCell ref="B156:B164"/>
-    <mergeCell ref="A165:A172"/>
-    <mergeCell ref="B165:B172"/>
-    <mergeCell ref="A221:A228"/>
-    <mergeCell ref="B221:B228"/>
-    <mergeCell ref="A229:A237"/>
-    <mergeCell ref="B229:B237"/>
-    <mergeCell ref="A238:A245"/>
-    <mergeCell ref="B238:B245"/>
-    <mergeCell ref="A197:A204"/>
-    <mergeCell ref="B197:B204"/>
-    <mergeCell ref="A205:A212"/>
-    <mergeCell ref="B205:B212"/>
-    <mergeCell ref="A213:A220"/>
-    <mergeCell ref="B213:B220"/>
-    <mergeCell ref="A270:A277"/>
-    <mergeCell ref="B270:B277"/>
-    <mergeCell ref="A278:A285"/>
-    <mergeCell ref="B278:B285"/>
-    <mergeCell ref="A286:A293"/>
-    <mergeCell ref="B286:B293"/>
-    <mergeCell ref="A246:A253"/>
-    <mergeCell ref="B246:B253"/>
-    <mergeCell ref="A254:A261"/>
-    <mergeCell ref="B254:B261"/>
-    <mergeCell ref="A262:A269"/>
-    <mergeCell ref="B262:B269"/>
-    <mergeCell ref="A319:A326"/>
-    <mergeCell ref="B319:B326"/>
-    <mergeCell ref="A327:A334"/>
-    <mergeCell ref="B327:B334"/>
-    <mergeCell ref="A335:A342"/>
-    <mergeCell ref="B335:B342"/>
-    <mergeCell ref="A294:A301"/>
-    <mergeCell ref="B294:B301"/>
-    <mergeCell ref="A302:A310"/>
-    <mergeCell ref="B302:B310"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="B311:B318"/>
-    <mergeCell ref="A367:A374"/>
-    <mergeCell ref="B367:B374"/>
-    <mergeCell ref="A375:A383"/>
-    <mergeCell ref="B375:B383"/>
-    <mergeCell ref="A384:A391"/>
-    <mergeCell ref="B384:B391"/>
-    <mergeCell ref="A343:A350"/>
-    <mergeCell ref="B343:B350"/>
-    <mergeCell ref="A351:A358"/>
-    <mergeCell ref="B351:B358"/>
-    <mergeCell ref="A359:A366"/>
-    <mergeCell ref="B359:B366"/>
-    <mergeCell ref="A416:A423"/>
-    <mergeCell ref="B416:B423"/>
-    <mergeCell ref="A424:A431"/>
-    <mergeCell ref="B424:B431"/>
-    <mergeCell ref="A432:A439"/>
-    <mergeCell ref="B432:B439"/>
-    <mergeCell ref="A392:A399"/>
-    <mergeCell ref="B392:B399"/>
-    <mergeCell ref="A400:A407"/>
-    <mergeCell ref="B400:B407"/>
-    <mergeCell ref="A408:A415"/>
-    <mergeCell ref="B408:B415"/>
-    <mergeCell ref="A465:A472"/>
-    <mergeCell ref="B465:B472"/>
-    <mergeCell ref="A473:A481"/>
-    <mergeCell ref="B473:B481"/>
-    <mergeCell ref="A440:A446"/>
-    <mergeCell ref="B440:B446"/>
-    <mergeCell ref="A447:A455"/>
-    <mergeCell ref="B447:B455"/>
-    <mergeCell ref="A456:A464"/>
-    <mergeCell ref="B456:B464"/>
-  </mergeCells>
+  <autoFilter ref="A1:E883" xr:uid="{26F8DBF5-6D5F-4C07-B9FB-79409D750831}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E840BD6-5378-4585-97A3-E12961EFA57A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17A6F4D-6A27-4429-8F51-C7CA18C2DF70}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
         <v>124.74444444444444</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>131.74444444444444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>147.97777777777776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>126.24444444444444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>123.24444444444444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>163.57222222222222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>124.74444444444444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>129.64444444444445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>123.24444444444444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>131.74444444444444</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B11">
+        <v>143.94444444444443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>147.97777777777776</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B12">
+        <v>150.94444444444443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>126.24444444444444</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B13">
+        <v>167.17777777777775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>123.24444444444444</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B14">
+        <v>145.44444444444443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>163.57222222222222</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B15">
+        <v>142.44444444444443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>124.74444444444444</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B16">
+        <v>182.77222222222221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>129.64444444444445</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B17">
+        <v>143.94444444444443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>123.24444444444444</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B18">
+        <v>148.84444444444443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>143.94444444444443</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B19">
+        <v>142.44444444444443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>150.94444444444443</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B20">
+        <v>186.28888888888886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>167.17777777777775</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B21">
+        <v>193.28888888888886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>145.44444444444443</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B22">
+        <v>200.42222222222222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>142.44444444444443</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B23">
+        <v>187.78888888888886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>182.77222222222221</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B24">
+        <v>184.78888888888886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>143.94444444444443</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B25">
+        <v>235.74444444444444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>148.84444444444443</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B26">
+        <v>186.28888888888886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>142.44444444444443</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B27">
+        <v>196.08888888888887</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>186.28888888888886</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B28">
+        <v>184.78888888888886</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>193.28888888888886</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B29">
+        <v>224.68888888888884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>200.42222222222222</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B30">
+        <v>231.68888888888884</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>187.78888888888886</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B31">
+        <v>238.82222222222219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>184.78888888888886</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B32">
+        <v>226.18888888888884</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>235.74444444444444</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B33">
+        <v>223.18888888888884</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>186.28888888888886</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B34">
+        <v>274.14444444444439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>196.08888888888887</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B35">
+        <v>224.68888888888884</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>184.78888888888886</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B36">
+        <v>234.48888888888885</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>224.68888888888884</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="B37">
+        <v>223.18888888888884</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>231.68888888888884</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B38">
+        <v>247.83333333333331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>238.82222222222219</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B39">
+        <v>254.83333333333331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>226.18888888888884</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="B40">
+        <v>252.86666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>223.18888888888884</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B41">
+        <v>249.33333333333331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>274.14444444444439</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B42">
+        <v>246.33333333333331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>224.68888888888884</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="B43">
+        <v>307.91666666666663</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>234.48888888888885</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="B44">
+        <v>247.83333333333331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>223.18888888888884</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="B45">
+        <v>262.5333333333333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>247.83333333333331</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="B46">
+        <v>246.33333333333331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>254.83333333333331</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="B47">
+        <v>305.43333333333334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>252.86666666666667</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="B48">
+        <v>312.43333333333334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>249.33333333333331</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="B49">
+        <v>310.4666666666667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>246.33333333333331</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="B50">
+        <v>306.93333333333334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>307.91666666666663</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="B51">
+        <v>303.93333333333334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>247.83333333333331</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="B52">
+        <v>365.51666666666665</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>262.5333333333333</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="B53">
+        <v>305.43333333333334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>246.33333333333331</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="B54">
+        <v>320.13333333333338</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>305.43333333333334</v>
-      </c>
-      <c r="B47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>312.43333333333334</v>
-      </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>310.4666666666667</v>
-      </c>
-      <c r="B49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>306.93333333333334</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="B55">
         <v>303.93333333333334</v>
       </c>
-      <c r="B51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>365.51666666666665</v>
-      </c>
-      <c r="B52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>305.43333333333334</v>
-      </c>
-      <c r="B53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>320.13333333333338</v>
-      </c>
-      <c r="B54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>303.93333333333334</v>
-      </c>
-      <c r="B55" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
         <v>98.844444444444434</v>
       </c>
-      <c r="B56" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
         <v>106.84444444444443</v>
       </c>
-      <c r="B57" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
         <v>104.84444444444443</v>
       </c>
-      <c r="B58" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
         <v>105.84444444444443</v>
       </c>
-      <c r="B59" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
         <v>104.84444444444443</v>
-      </c>
-      <c r="B60" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
